--- a/Code/Results/Cases/Case_0_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_19/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,73 +447,76 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_0_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_19/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -450,73 +456,79 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_0_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_19/res_line/pl_mw.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.1988608011566839</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.03751225585359919</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.1446760744962283</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.7258577924736755</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.6360385974745668</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.4349104551361478</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.661032096017955</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>5.223116306788654</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1919179770672343</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.1759768390469389</v>
+      </c>
+      <c r="D3">
+        <v>0.03654351574081005</v>
+      </c>
+      <c r="E3">
+        <v>0.1282792969630364</v>
+      </c>
+      <c r="F3">
+        <v>0.6792304678765078</v>
+      </c>
+      <c r="G3">
+        <v>0.5978303192839149</v>
+      </c>
+      <c r="H3">
+        <v>0.428443015461994</v>
+      </c>
+      <c r="I3">
+        <v>0.6235323792073046</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>4.532044442767017</v>
+      </c>
+      <c r="L3">
+        <v>0.170315144623828</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.162086589105769</v>
+      </c>
+      <c r="D4">
+        <v>0.0359887204060918</v>
+      </c>
+      <c r="E4">
+        <v>0.1183981973876271</v>
+      </c>
+      <c r="F4">
+        <v>0.6533370892101544</v>
+      </c>
+      <c r="G4">
+        <v>0.5772934752230583</v>
+      </c>
+      <c r="H4">
+        <v>0.4260955365894006</v>
+      </c>
+      <c r="I4">
+        <v>0.6029135048280096</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>4.109859018808436</v>
+      </c>
+      <c r="L4">
+        <v>0.1573695492319942</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.1564618723216284</v>
+      </c>
+      <c r="D5">
+        <v>0.03577194040065379</v>
+      </c>
+      <c r="E5">
+        <v>0.114413660929074</v>
+      </c>
+      <c r="F5">
+        <v>0.6434218183526994</v>
+      </c>
+      <c r="G5">
+        <v>0.5696035360900567</v>
+      </c>
+      <c r="H5">
+        <v>0.4255214865117978</v>
+      </c>
+      <c r="I5">
+        <v>0.5950720256149111</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>3.938237161960785</v>
+      </c>
+      <c r="L5">
+        <v>0.1521662846634158</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.1555299159134762</v>
+      </c>
+      <c r="D6">
+        <v>0.03573648546633379</v>
+      </c>
+      <c r="E6">
+        <v>0.1137544394263124</v>
+      </c>
+      <c r="F6">
+        <v>0.6418123992315472</v>
+      </c>
+      <c r="G6">
+        <v>0.5683660713948484</v>
+      </c>
+      <c r="H6">
+        <v>0.4254485548059677</v>
+      </c>
+      <c r="I6">
+        <v>0.5938025967858138</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>3.909761794314875</v>
+      </c>
+      <c r="L6">
+        <v>0.1513064238581663</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.1620105937400353</v>
+      </c>
+      <c r="D7">
+        <v>0.03598576011103916</v>
+      </c>
+      <c r="E7">
+        <v>0.1183442962331789</v>
+      </c>
+      <c r="F7">
+        <v>0.6532008567432896</v>
+      </c>
+      <c r="G7">
+        <v>0.5771870880660401</v>
+      </c>
+      <c r="H7">
+        <v>0.426086278395573</v>
+      </c>
+      <c r="I7">
+        <v>0.6028055370373764</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>4.107542902442049</v>
+      </c>
+      <c r="L7">
+        <v>0.1572990940627932</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.1909341258046453</v>
+      </c>
+      <c r="D8">
+        <v>0.03716944714658865</v>
+      </c>
+      <c r="E8">
+        <v>0.1389807174015836</v>
+      </c>
+      <c r="F8">
+        <v>0.7091806913631586</v>
+      </c>
+      <c r="G8">
+        <v>0.622222665575606</v>
+      </c>
+      <c r="H8">
+        <v>0.4323274726991144</v>
+      </c>
+      <c r="I8">
+        <v>0.6475752354017317</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>4.984319282150011</v>
+      </c>
+      <c r="L8">
+        <v>0.1843982129497022</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.2491618253424974</v>
+      </c>
+      <c r="D9">
+        <v>0.03984697125414982</v>
+      </c>
+      <c r="E9">
+        <v>0.1811681558861196</v>
+      </c>
+      <c r="F9">
+        <v>0.8431916344639916</v>
+      </c>
+      <c r="G9">
+        <v>0.7364824616906986</v>
+      </c>
+      <c r="H9">
+        <v>0.4587087705291566</v>
+      </c>
+      <c r="I9">
+        <v>0.7566271398955564</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>6.726380110130947</v>
+      </c>
+      <c r="L9">
+        <v>0.2404606961262061</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.2932241423363564</v>
+      </c>
+      <c r="D10">
+        <v>0.04209325577970446</v>
+      </c>
+      <c r="E10">
+        <v>0.213579671580149</v>
+      </c>
+      <c r="F10">
+        <v>0.9602856239847171</v>
+      </c>
+      <c r="G10">
+        <v>0.8404547021949185</v>
+      </c>
+      <c r="H10">
+        <v>0.4886405245626264</v>
+      </c>
+      <c r="I10">
+        <v>0.8530240337266122</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>8.029083052855299</v>
+      </c>
+      <c r="L10">
+        <v>0.2840355001871018</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.3136387752334997</v>
+      </c>
+      <c r="D11">
+        <v>0.04319202570049896</v>
+      </c>
+      <c r="E11">
+        <v>0.2287245421760389</v>
+      </c>
+      <c r="F11">
+        <v>1.018569574672384</v>
+      </c>
+      <c r="G11">
+        <v>0.8931595068273452</v>
+      </c>
+      <c r="H11">
+        <v>0.505032349205166</v>
+      </c>
+      <c r="I11">
+        <v>0.9012441954822208</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>8.628934206940642</v>
+      </c>
+      <c r="L11">
+        <v>0.3045289496386943</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.3214310166346479</v>
+      </c>
+      <c r="D12">
+        <v>0.0436207472705874</v>
+      </c>
+      <c r="E12">
+        <v>0.2345257856743501</v>
+      </c>
+      <c r="F12">
+        <v>1.041452826776023</v>
+      </c>
+      <c r="G12">
+        <v>0.9139947121410756</v>
+      </c>
+      <c r="H12">
+        <v>0.5116844095200435</v>
+      </c>
+      <c r="I12">
+        <v>0.9202105908036344</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>8.857335191937921</v>
+      </c>
+      <c r="L12">
+        <v>0.3124000642528841</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.3197499319599331</v>
+      </c>
+      <c r="D13">
+        <v>0.04352782468834704</v>
+      </c>
+      <c r="E13">
+        <v>0.2332732922837906</v>
+      </c>
+      <c r="F13">
+        <v>1.036486820763855</v>
+      </c>
+      <c r="G13">
+        <v>0.9094667660126419</v>
+      </c>
+      <c r="H13">
+        <v>0.5102312018899511</v>
+      </c>
+      <c r="I13">
+        <v>0.9160930768383651</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>8.808085767568343</v>
+      </c>
+      <c r="L13">
+        <v>0.3106997125760955</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.3142785604324843</v>
+      </c>
+      <c r="D14">
+        <v>0.04322703370693404</v>
+      </c>
+      <c r="E14">
+        <v>0.2292004344011076</v>
+      </c>
+      <c r="F14">
+        <v>1.02043535512</v>
+      </c>
+      <c r="G14">
+        <v>0.8948554445090338</v>
+      </c>
+      <c r="H14">
+        <v>0.5055704228824425</v>
+      </c>
+      <c r="I14">
+        <v>0.9027899338551748</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>8.647698555246564</v>
+      </c>
+      <c r="L14">
+        <v>0.3051742055337456</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.310935482539719</v>
+      </c>
+      <c r="D15">
+        <v>0.04304448739578959</v>
+      </c>
+      <c r="E15">
+        <v>0.226714585061508</v>
+      </c>
+      <c r="F15">
+        <v>1.010712036672786</v>
+      </c>
+      <c r="G15">
+        <v>0.886022948613018</v>
+      </c>
+      <c r="H15">
+        <v>0.5027749356853235</v>
+      </c>
+      <c r="I15">
+        <v>0.8947358500460609</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>8.549626183342525</v>
+      </c>
+      <c r="L15">
+        <v>0.3018045366738562</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.2918981493515673</v>
+      </c>
+      <c r="D16">
+        <v>0.04202312668466135</v>
+      </c>
+      <c r="E16">
+        <v>0.2125986946972205</v>
+      </c>
+      <c r="F16">
+        <v>0.9565851358072024</v>
+      </c>
+      <c r="G16">
+        <v>0.8371273811439153</v>
+      </c>
+      <c r="H16">
+        <v>0.4876289249060477</v>
+      </c>
+      <c r="I16">
+        <v>0.8499671353287326</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>7.990044458465036</v>
+      </c>
+      <c r="L16">
+        <v>0.2827108858639349</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.2803199349671672</v>
+      </c>
+      <c r="D17">
+        <v>0.04141731507004209</v>
+      </c>
+      <c r="E17">
+        <v>0.2040475030935767</v>
+      </c>
+      <c r="F17">
+        <v>0.9247266785167625</v>
+      </c>
+      <c r="G17">
+        <v>0.8085838413163913</v>
+      </c>
+      <c r="H17">
+        <v>0.4790792007358675</v>
+      </c>
+      <c r="I17">
+        <v>0.8236749145972482</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>7.64875602202676</v>
+      </c>
+      <c r="L17">
+        <v>0.2711790330147181</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.273694768558272</v>
+      </c>
+      <c r="D18">
+        <v>0.04107600219753493</v>
+      </c>
+      <c r="E18">
+        <v>0.1991662335034619</v>
+      </c>
+      <c r="F18">
+        <v>0.906868789634899</v>
+      </c>
+      <c r="G18">
+        <v>0.792668742627427</v>
+      </c>
+      <c r="H18">
+        <v>0.4744198704905358</v>
+      </c>
+      <c r="I18">
+        <v>0.8089583626828514</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>7.453124087261813</v>
+      </c>
+      <c r="L18">
+        <v>0.2646084409090719</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.2714572538728248</v>
+      </c>
+      <c r="D19">
+        <v>0.04096162007681414</v>
+      </c>
+      <c r="E19">
+        <v>0.1975196534638926</v>
+      </c>
+      <c r="F19">
+        <v>0.9008998853476129</v>
+      </c>
+      <c r="G19">
+        <v>0.7873635960189489</v>
+      </c>
+      <c r="H19">
+        <v>0.4728853447632275</v>
+      </c>
+      <c r="I19">
+        <v>0.8040430832904164</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>7.386995249294898</v>
+      </c>
+      <c r="L19">
+        <v>0.2623940313372088</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.2815488461596658</v>
+      </c>
+      <c r="D20">
+        <v>0.04148105564836868</v>
+      </c>
+      <c r="E20">
+        <v>0.2049538879757762</v>
+      </c>
+      <c r="F20">
+        <v>0.928069183490976</v>
+      </c>
+      <c r="G20">
+        <v>0.8115696688332861</v>
+      </c>
+      <c r="H20">
+        <v>0.4799622913028259</v>
+      </c>
+      <c r="I20">
+        <v>0.8264312036536197</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>7.685016171035386</v>
+      </c>
+      <c r="L20">
+        <v>0.2724000806178708</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.315883889874641</v>
+      </c>
+      <c r="D21">
+        <v>0.04331502655600872</v>
+      </c>
+      <c r="E21">
+        <v>0.2303948613417148</v>
+      </c>
+      <c r="F21">
+        <v>1.025127236582591</v>
+      </c>
+      <c r="G21">
+        <v>0.8991224923374546</v>
+      </c>
+      <c r="H21">
+        <v>0.5069269440829629</v>
+      </c>
+      <c r="I21">
+        <v>0.9066775485323006</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>8.694772452976679</v>
+      </c>
+      <c r="L21">
+        <v>0.3067940556636728</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.3386878305408914</v>
+      </c>
+      <c r="D22">
+        <v>0.04458821166647908</v>
+      </c>
+      <c r="E22">
+        <v>0.2474126335657587</v>
+      </c>
+      <c r="F22">
+        <v>1.093345300139248</v>
+      </c>
+      <c r="G22">
+        <v>0.96150998308336</v>
+      </c>
+      <c r="H22">
+        <v>0.5271678155893227</v>
+      </c>
+      <c r="I22">
+        <v>0.9632839280561001</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>9.362109078933145</v>
+      </c>
+      <c r="L22">
+        <v>0.3299254840711967</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.3264806109324354</v>
+      </c>
+      <c r="D23">
+        <v>0.04390128437083973</v>
+      </c>
+      <c r="E23">
+        <v>0.238291090276654</v>
+      </c>
+      <c r="F23">
+        <v>1.056465435028457</v>
+      </c>
+      <c r="G23">
+        <v>0.9277039617772544</v>
+      </c>
+      <c r="H23">
+        <v>0.516108852430051</v>
+      </c>
+      <c r="I23">
+        <v>0.932663102503497</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>9.005186396578154</v>
+      </c>
+      <c r="L23">
+        <v>0.3175149361753995</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.2809931585294407</v>
+      </c>
+      <c r="D24">
+        <v>0.04145221691992873</v>
+      </c>
+      <c r="E24">
+        <v>0.2045440032258767</v>
+      </c>
+      <c r="F24">
+        <v>0.926556617284632</v>
+      </c>
+      <c r="G24">
+        <v>0.8102182418930397</v>
+      </c>
+      <c r="H24">
+        <v>0.4795622520009459</v>
+      </c>
+      <c r="I24">
+        <v>0.825183847768912</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>7.668621168637856</v>
+      </c>
+      <c r="L24">
+        <v>0.2718478615802269</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.2332128533220725</v>
+      </c>
+      <c r="D25">
+        <v>0.0390785762213568</v>
+      </c>
+      <c r="E25">
+        <v>0.1695354050004241</v>
+      </c>
+      <c r="F25">
+        <v>0.8039673683231001</v>
+      </c>
+      <c r="G25">
+        <v>0.7023847836615573</v>
+      </c>
+      <c r="H25">
+        <v>0.4498702500758611</v>
+      </c>
+      <c r="I25">
+        <v>0.7245268498373747</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>6.251804251510805</v>
+      </c>
+      <c r="L25">
+        <v>0.224922709197557</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_19/res_line/pl_mw.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1988608011566839</v>
+        <v>0.187975658643623</v>
       </c>
       <c r="D2">
-        <v>0.03751225585359919</v>
+        <v>0.04894305529089493</v>
       </c>
       <c r="E2">
-        <v>0.1446760744962283</v>
+        <v>0.1344135178954993</v>
       </c>
       <c r="F2">
-        <v>0.7258577924736755</v>
+        <v>1.141000391209374</v>
       </c>
       <c r="G2">
-        <v>0.6360385974745668</v>
+        <v>1.006847600612446</v>
       </c>
       <c r="H2">
-        <v>0.4349104551361478</v>
+        <v>1.019962940504101</v>
       </c>
       <c r="I2">
-        <v>0.661032096017955</v>
+        <v>1.131262883943243</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5.223116306788654</v>
+        <v>2.051353989771656</v>
       </c>
       <c r="L2">
-        <v>0.1919179770672343</v>
+        <v>0.1763426918895163</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1759768390469389</v>
+        <v>0.1823087664189842</v>
       </c>
       <c r="D3">
-        <v>0.03654351574081005</v>
+        <v>0.04868370703032809</v>
       </c>
       <c r="E3">
-        <v>0.1282792969630364</v>
+        <v>0.1308466779653514</v>
       </c>
       <c r="F3">
-        <v>0.6792304678765078</v>
+        <v>1.145454231633074</v>
       </c>
       <c r="G3">
-        <v>0.5978303192839149</v>
+        <v>1.013717250105017</v>
       </c>
       <c r="H3">
-        <v>0.428443015461994</v>
+        <v>1.030586693653234</v>
       </c>
       <c r="I3">
-        <v>0.6235323792073046</v>
+        <v>1.136932692954822</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4.532044442767017</v>
+        <v>1.843690623782379</v>
       </c>
       <c r="L3">
-        <v>0.170315144623828</v>
+        <v>0.1720506178564349</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.162086589105769</v>
+        <v>0.1788923657700394</v>
       </c>
       <c r="D4">
-        <v>0.0359887204060918</v>
+        <v>0.04853878181821258</v>
       </c>
       <c r="E4">
-        <v>0.1183981973876271</v>
+        <v>0.1287250105586075</v>
       </c>
       <c r="F4">
-        <v>0.6533370892101544</v>
+        <v>1.149235787768241</v>
       </c>
       <c r="G4">
-        <v>0.5772934752230583</v>
+        <v>1.018985421664098</v>
       </c>
       <c r="H4">
-        <v>0.4260955365894006</v>
+        <v>1.037848361948718</v>
       </c>
       <c r="I4">
-        <v>0.6029135048280096</v>
+        <v>1.141375619945109</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4.109859018808436</v>
+        <v>1.716211987121824</v>
       </c>
       <c r="L4">
-        <v>0.1573695492319942</v>
+        <v>0.1695250733299645</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1564618723216284</v>
+        <v>0.1775160746595645</v>
       </c>
       <c r="D5">
-        <v>0.03577194040065379</v>
+        <v>0.04848333679548844</v>
       </c>
       <c r="E5">
-        <v>0.114413660929074</v>
+        <v>0.1278775951902986</v>
       </c>
       <c r="F5">
-        <v>0.6434218183526994</v>
+        <v>1.15103905357784</v>
       </c>
       <c r="G5">
-        <v>0.5696035360900567</v>
+        <v>1.021395089903862</v>
       </c>
       <c r="H5">
-        <v>0.4255214865117978</v>
+        <v>1.040992859409414</v>
       </c>
       <c r="I5">
-        <v>0.5950720256149111</v>
+        <v>1.143427150055693</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>3.938237161960785</v>
+        <v>1.664272126068113</v>
       </c>
       <c r="L5">
-        <v>0.1521662846634158</v>
+        <v>0.1685234280835388</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1555299159134762</v>
+        <v>0.1772885057303597</v>
       </c>
       <c r="D6">
-        <v>0.03573648546633379</v>
+        <v>0.0484743488291528</v>
       </c>
       <c r="E6">
-        <v>0.1137544394263124</v>
+        <v>0.1277379198098636</v>
       </c>
       <c r="F6">
-        <v>0.6418123992315472</v>
+        <v>1.151354294680644</v>
       </c>
       <c r="G6">
-        <v>0.5683660713948484</v>
+        <v>1.021811052689586</v>
       </c>
       <c r="H6">
-        <v>0.4254485548059677</v>
+        <v>1.041526180475898</v>
       </c>
       <c r="I6">
-        <v>0.5938025967858138</v>
+        <v>1.143782337231656</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3.909761794314875</v>
+        <v>1.655648132605052</v>
       </c>
       <c r="L6">
-        <v>0.1513064238581663</v>
+        <v>0.168358766454638</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1620105937400353</v>
+        <v>0.1788737400921718</v>
       </c>
       <c r="D7">
-        <v>0.03598576011103916</v>
+        <v>0.04853801941941427</v>
       </c>
       <c r="E7">
-        <v>0.1183442962331789</v>
+        <v>0.1287135124704939</v>
       </c>
       <c r="F7">
-        <v>0.6532008567432896</v>
+        <v>1.14925904672485</v>
       </c>
       <c r="G7">
-        <v>0.5771870880660401</v>
+        <v>1.019016856679599</v>
       </c>
       <c r="H7">
-        <v>0.426086278395573</v>
+        <v>1.037890020010153</v>
       </c>
       <c r="I7">
-        <v>0.6028055370373764</v>
+        <v>1.141402312875165</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4.107542902442049</v>
+        <v>1.715511470256217</v>
       </c>
       <c r="L7">
-        <v>0.1572990940627932</v>
+        <v>0.1695114534054056</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1909341258046453</v>
+        <v>0.1860086490434014</v>
       </c>
       <c r="D8">
-        <v>0.03716944714658865</v>
+        <v>0.04885066839242569</v>
       </c>
       <c r="E8">
-        <v>0.1389807174015836</v>
+        <v>0.1331694670379662</v>
       </c>
       <c r="F8">
-        <v>0.7091806913631586</v>
+        <v>1.142318193524069</v>
       </c>
       <c r="G8">
-        <v>0.622222665575606</v>
+        <v>1.008997548936136</v>
       </c>
       <c r="H8">
-        <v>0.4323274726991144</v>
+        <v>1.023472447383924</v>
       </c>
       <c r="I8">
-        <v>0.6475752354017317</v>
+        <v>1.133017754794409</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>4.984319282150011</v>
+        <v>1.979746949826676</v>
       </c>
       <c r="L8">
-        <v>0.1843982129497022</v>
+        <v>0.1748399460303602</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2491618253424974</v>
+        <v>0.20049936208774</v>
       </c>
       <c r="D9">
-        <v>0.03984697125414982</v>
+        <v>0.04957688409280081</v>
       </c>
       <c r="E9">
-        <v>0.1811681558861196</v>
+        <v>0.1424515359767256</v>
       </c>
       <c r="F9">
-        <v>0.8431916344639916</v>
+        <v>1.137059962545237</v>
       </c>
       <c r="G9">
-        <v>0.7364824616906986</v>
+        <v>0.9977387732792806</v>
       </c>
       <c r="H9">
-        <v>0.4587087705291566</v>
+        <v>1.001079995551805</v>
       </c>
       <c r="I9">
-        <v>0.7566271398955564</v>
+        <v>1.124243583198449</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>6.726380110130947</v>
+        <v>2.498079835246699</v>
       </c>
       <c r="L9">
-        <v>0.2404606961262061</v>
+        <v>0.1861646523769309</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2932241423363564</v>
+        <v>0.2114494559152149</v>
       </c>
       <c r="D10">
-        <v>0.04209325577970446</v>
+        <v>0.05017891554908971</v>
       </c>
       <c r="E10">
-        <v>0.213579671580149</v>
+        <v>0.1496054836867771</v>
       </c>
       <c r="F10">
-        <v>0.9602856239847171</v>
+        <v>1.138354748893875</v>
       </c>
       <c r="G10">
-        <v>0.8404547021949185</v>
+        <v>0.9946604034117854</v>
       </c>
       <c r="H10">
-        <v>0.4886405245626264</v>
+        <v>0.9882405648529016</v>
       </c>
       <c r="I10">
-        <v>0.8530240337266122</v>
+        <v>1.122525652085855</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.029083052855299</v>
+        <v>2.878976170875148</v>
       </c>
       <c r="L10">
-        <v>0.2840355001871018</v>
+        <v>0.1950257748280251</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3136387752334997</v>
+        <v>0.2164969004055308</v>
       </c>
       <c r="D11">
-        <v>0.04319202570049896</v>
+        <v>0.05046759049043459</v>
       </c>
       <c r="E11">
-        <v>0.2287245421760389</v>
+        <v>0.1529332925827731</v>
       </c>
       <c r="F11">
-        <v>1.018569574672384</v>
+        <v>1.140078150508117</v>
       </c>
       <c r="G11">
-        <v>0.8931595068273452</v>
+        <v>0.9944048614466681</v>
       </c>
       <c r="H11">
-        <v>0.505032349205166</v>
+        <v>0.9831899402261541</v>
       </c>
       <c r="I11">
-        <v>0.9012441954822208</v>
+        <v>1.122782612589134</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>8.628934206940642</v>
+        <v>3.052270830510452</v>
       </c>
       <c r="L11">
-        <v>0.3045289496386943</v>
+        <v>0.1991759921722434</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3214310166346479</v>
+        <v>0.2184177289688023</v>
       </c>
       <c r="D12">
-        <v>0.0436207472705874</v>
+        <v>0.05057902660885105</v>
       </c>
       <c r="E12">
-        <v>0.2345257856743501</v>
+        <v>0.1542040457126959</v>
       </c>
       <c r="F12">
-        <v>1.041452826776023</v>
+        <v>1.140895019662054</v>
       </c>
       <c r="G12">
-        <v>0.9139947121410756</v>
+        <v>0.9944740987722014</v>
       </c>
       <c r="H12">
-        <v>0.5116844095200435</v>
+        <v>0.9813915082108338</v>
       </c>
       <c r="I12">
-        <v>0.9202105908036344</v>
+        <v>1.123030179069204</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>8.857335191937921</v>
+        <v>3.117895372748649</v>
       </c>
       <c r="L12">
-        <v>0.3124000642528841</v>
+        <v>0.2007648289836652</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3197499319599331</v>
+        <v>0.2180036236845524</v>
       </c>
       <c r="D13">
-        <v>0.04352782468834704</v>
+        <v>0.05055493262563715</v>
       </c>
       <c r="E13">
-        <v>0.2332732922837906</v>
+        <v>0.1539298951760415</v>
       </c>
       <c r="F13">
-        <v>1.036486820763855</v>
+        <v>1.140711768991622</v>
       </c>
       <c r="G13">
-        <v>0.9094667660126419</v>
+        <v>0.9944517820972152</v>
       </c>
       <c r="H13">
-        <v>0.5102312018899511</v>
+        <v>0.9817737485336693</v>
       </c>
       <c r="I13">
-        <v>0.9160930768383651</v>
+        <v>1.122970163405455</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>8.808085767568343</v>
+        <v>3.103761907818694</v>
       </c>
       <c r="L13">
-        <v>0.3106997125760955</v>
+        <v>0.200421876336776</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3142785604324843</v>
+        <v>0.2166547385820081</v>
       </c>
       <c r="D14">
-        <v>0.04322703370693404</v>
+        <v>0.05047671593841585</v>
       </c>
       <c r="E14">
-        <v>0.2292004344011076</v>
+        <v>0.1530376259487696</v>
       </c>
       <c r="F14">
-        <v>1.02043535512</v>
+        <v>1.14014205644115</v>
       </c>
       <c r="G14">
-        <v>0.8948554445090338</v>
+        <v>0.9944072227199285</v>
       </c>
       <c r="H14">
-        <v>0.5055704228824425</v>
+        <v>0.9830396918496831</v>
       </c>
       <c r="I14">
-        <v>0.9027899338551748</v>
+        <v>1.122799963222249</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>8.647698555246564</v>
+        <v>3.057669778183993</v>
       </c>
       <c r="L14">
-        <v>0.3051742055337456</v>
+        <v>0.1993063606947771</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.310935482539719</v>
+        <v>0.2158297395207569</v>
       </c>
       <c r="D15">
-        <v>0.04304448739578959</v>
+        <v>0.05042908197333418</v>
       </c>
       <c r="E15">
-        <v>0.226714585061508</v>
+        <v>0.1524924643576711</v>
       </c>
       <c r="F15">
-        <v>1.010712036672786</v>
+        <v>1.139814515401582</v>
       </c>
       <c r="G15">
-        <v>0.886022948613018</v>
+        <v>0.9944015886927531</v>
       </c>
       <c r="H15">
-        <v>0.5027749356853235</v>
+        <v>0.9838299970971178</v>
       </c>
       <c r="I15">
-        <v>0.8947358500460609</v>
+        <v>1.12271530686354</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.549626183342525</v>
+        <v>3.029437179159856</v>
       </c>
       <c r="L15">
-        <v>0.3018045366738562</v>
+        <v>0.1986253230057855</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2918981493515673</v>
+        <v>0.2111209213991856</v>
       </c>
       <c r="D16">
-        <v>0.04202312668466135</v>
+        <v>0.05016034721402463</v>
       </c>
       <c r="E16">
-        <v>0.2125986946972205</v>
+        <v>0.1493894833534668</v>
       </c>
       <c r="F16">
-        <v>0.9565851358072024</v>
+        <v>1.138265043981633</v>
       </c>
       <c r="G16">
-        <v>0.8371273811439153</v>
+        <v>0.994700258449285</v>
       </c>
       <c r="H16">
-        <v>0.4876289249060477</v>
+        <v>0.988586577776033</v>
       </c>
       <c r="I16">
-        <v>0.8499671353287326</v>
+        <v>1.122529835122528</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>7.990044458465036</v>
+        <v>2.86765127410672</v>
       </c>
       <c r="L16">
-        <v>0.2827108858639349</v>
+        <v>0.1947569557610223</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2803199349671672</v>
+        <v>0.2082491329724689</v>
       </c>
       <c r="D17">
-        <v>0.04141731507004209</v>
+        <v>0.04999927366703361</v>
       </c>
       <c r="E17">
-        <v>0.2040475030935767</v>
+        <v>0.1475047314892279</v>
       </c>
       <c r="F17">
-        <v>0.9247266785167625</v>
+        <v>1.137605842237548</v>
       </c>
       <c r="G17">
-        <v>0.8085838413163913</v>
+        <v>0.9951776811077053</v>
       </c>
       <c r="H17">
-        <v>0.4790792007358675</v>
+        <v>0.9917073142396617</v>
       </c>
       <c r="I17">
-        <v>0.8236749145972482</v>
+        <v>1.122682689960818</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>7.64875602202676</v>
+        <v>2.768405529410245</v>
       </c>
       <c r="L17">
-        <v>0.2711790330147181</v>
+        <v>0.1924144449815373</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.273694768558272</v>
+        <v>0.2066035892350158</v>
       </c>
       <c r="D18">
-        <v>0.04107600219753493</v>
+        <v>0.04990802263182559</v>
       </c>
       <c r="E18">
-        <v>0.1991662335034619</v>
+        <v>0.1464275833363402</v>
       </c>
       <c r="F18">
-        <v>0.906868789634899</v>
+        <v>1.137333393933275</v>
       </c>
       <c r="G18">
-        <v>0.792668742627427</v>
+        <v>0.9955599554776029</v>
       </c>
       <c r="H18">
-        <v>0.4744198704905358</v>
+        <v>0.9935766160399737</v>
       </c>
       <c r="I18">
-        <v>0.8089583626828514</v>
+        <v>1.122868296483318</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>7.453124087261813</v>
+        <v>2.711324264562052</v>
       </c>
       <c r="L18">
-        <v>0.2646084409090719</v>
+        <v>0.1910783133780285</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2714572538728248</v>
+        <v>0.2060475084024063</v>
       </c>
       <c r="D19">
-        <v>0.04096162007681414</v>
+        <v>0.04987736632060091</v>
       </c>
       <c r="E19">
-        <v>0.1975196534638926</v>
+        <v>0.1460640658077494</v>
       </c>
       <c r="F19">
-        <v>0.9008998853476129</v>
+        <v>1.137259440294969</v>
       </c>
       <c r="G19">
-        <v>0.7873635960189489</v>
+        <v>0.9957078379985518</v>
       </c>
       <c r="H19">
-        <v>0.4728853447632275</v>
+        <v>0.994222281257251</v>
       </c>
       <c r="I19">
-        <v>0.8040430832904164</v>
+        <v>1.122947889387909</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>7.386995249294898</v>
+        <v>2.691997970304612</v>
       </c>
       <c r="L19">
-        <v>0.2623940313372088</v>
+        <v>0.1906278462124362</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2815488461596658</v>
+        <v>0.2085541950089009</v>
       </c>
       <c r="D20">
-        <v>0.04148105564836868</v>
+        <v>0.05001627598906566</v>
       </c>
       <c r="E20">
-        <v>0.2049538879757762</v>
+        <v>0.1477046510869471</v>
       </c>
       <c r="F20">
-        <v>0.928069183490976</v>
+        <v>1.137664963465355</v>
       </c>
       <c r="G20">
-        <v>0.8115696688332861</v>
+        <v>0.9951157048876809</v>
       </c>
       <c r="H20">
-        <v>0.4799622913028259</v>
+        <v>0.9913674092504436</v>
       </c>
       <c r="I20">
-        <v>0.8264312036536197</v>
+        <v>1.122656301200621</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>7.685016171035386</v>
+        <v>2.778970186634695</v>
       </c>
       <c r="L20">
-        <v>0.2724000806178708</v>
+        <v>0.192662647505017</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.315883889874641</v>
+        <v>0.217050682165052</v>
       </c>
       <c r="D21">
-        <v>0.04331502655600872</v>
+        <v>0.050499632567508</v>
       </c>
       <c r="E21">
-        <v>0.2303948613417148</v>
+        <v>0.1532994196089632</v>
       </c>
       <c r="F21">
-        <v>1.025127236582591</v>
+        <v>1.140304927991423</v>
       </c>
       <c r="G21">
-        <v>0.8991224923374546</v>
+        <v>0.9944157945195968</v>
       </c>
       <c r="H21">
-        <v>0.5069269440829629</v>
+        <v>0.982664752039426</v>
       </c>
       <c r="I21">
-        <v>0.9066775485323006</v>
+        <v>1.122845869648316</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>8.694772452976679</v>
+        <v>3.071208123272299</v>
       </c>
       <c r="L21">
-        <v>0.3067940556636728</v>
+        <v>0.199633546063481</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3386878305408914</v>
+        <v>0.2226588105664291</v>
       </c>
       <c r="D22">
-        <v>0.04458821166647908</v>
+        <v>0.0508278948010954</v>
       </c>
       <c r="E22">
-        <v>0.2474126335657587</v>
+        <v>0.1570176282272868</v>
       </c>
       <c r="F22">
-        <v>1.093345300139248</v>
+        <v>1.142988224326942</v>
       </c>
       <c r="G22">
-        <v>0.96150998308336</v>
+        <v>0.9949266137114563</v>
       </c>
       <c r="H22">
-        <v>0.5271678155893227</v>
+        <v>0.9776425399421385</v>
       </c>
       <c r="I22">
-        <v>0.9632839280561001</v>
+        <v>1.123846035795268</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.362109078933145</v>
+        <v>3.262211185474825</v>
       </c>
       <c r="L22">
-        <v>0.3299254840711967</v>
+        <v>0.2042899603186754</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3264806109324354</v>
+        <v>0.2196606128287044</v>
       </c>
       <c r="D23">
-        <v>0.04390128437083973</v>
+        <v>0.05065156650765346</v>
       </c>
       <c r="E23">
-        <v>0.238291090276654</v>
+        <v>0.1550274964213614</v>
       </c>
       <c r="F23">
-        <v>1.056465435028457</v>
+        <v>1.141468074078929</v>
       </c>
       <c r="G23">
-        <v>0.9277039617772544</v>
+        <v>0.9945649274622781</v>
       </c>
       <c r="H23">
-        <v>0.516108852430051</v>
+        <v>0.9802619269705986</v>
       </c>
       <c r="I23">
-        <v>0.932663102503497</v>
+        <v>1.123231740280474</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.005186396578154</v>
+        <v>3.160269005228542</v>
       </c>
       <c r="L23">
-        <v>0.3175149361753995</v>
+        <v>0.2017955152659425</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2809931585294407</v>
+        <v>0.2084162593723988</v>
       </c>
       <c r="D24">
-        <v>0.04145221691992873</v>
+        <v>0.05000858502614847</v>
       </c>
       <c r="E24">
-        <v>0.2045440032258767</v>
+        <v>0.147614247439698</v>
       </c>
       <c r="F24">
-        <v>0.926556617284632</v>
+        <v>1.137637902995834</v>
       </c>
       <c r="G24">
-        <v>0.8102182418930397</v>
+        <v>0.9951433886623704</v>
       </c>
       <c r="H24">
-        <v>0.4795622520009459</v>
+        <v>0.9915208462507223</v>
       </c>
       <c r="I24">
-        <v>0.825183847768912</v>
+        <v>1.122667927215552</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>7.668621168637856</v>
+        <v>2.774193978381334</v>
       </c>
       <c r="L24">
-        <v>0.2718478615802269</v>
+        <v>0.1925504021069031</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2332128533220725</v>
+        <v>0.1965258633609182</v>
       </c>
       <c r="D25">
-        <v>0.0390785762213568</v>
+        <v>0.04936836683871348</v>
       </c>
       <c r="E25">
-        <v>0.1695354050004241</v>
+        <v>0.1398819706826941</v>
       </c>
       <c r="F25">
-        <v>0.8039673683231001</v>
+        <v>1.137581426945033</v>
       </c>
       <c r="G25">
-        <v>0.7023847836615573</v>
+        <v>0.9998782826928476</v>
       </c>
       <c r="H25">
-        <v>0.4498702500758611</v>
+        <v>1.006505382199904</v>
       </c>
       <c r="I25">
-        <v>0.7245268498373747</v>
+        <v>1.125790767114005</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>6.251804251510805</v>
+        <v>2.357841927717573</v>
       </c>
       <c r="L25">
-        <v>0.224922709197557</v>
+        <v>0.1830065565206098</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_19/res_line/pl_mw.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.187975658643623</v>
+        <v>0.1988608011565702</v>
       </c>
       <c r="D2">
-        <v>0.04894305529089493</v>
+        <v>0.037512255853418</v>
       </c>
       <c r="E2">
-        <v>0.1344135178954993</v>
+        <v>0.1446760744962354</v>
       </c>
       <c r="F2">
-        <v>1.141000391209374</v>
+        <v>0.7258577924736613</v>
       </c>
       <c r="G2">
-        <v>1.006847600612446</v>
+        <v>0.6360385974744815</v>
       </c>
       <c r="H2">
-        <v>1.019962940504101</v>
+        <v>0.4349104551361336</v>
       </c>
       <c r="I2">
-        <v>1.131262883943243</v>
+        <v>0.6610320960179408</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.051353989771656</v>
+        <v>5.223116306788768</v>
       </c>
       <c r="L2">
-        <v>0.1763426918895163</v>
+        <v>0.1919179770671207</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1823087664189842</v>
+        <v>0.1759768390470668</v>
       </c>
       <c r="D3">
-        <v>0.04868370703032809</v>
+        <v>0.03654351574092374</v>
       </c>
       <c r="E3">
-        <v>0.1308466779653514</v>
+        <v>0.1282792969630577</v>
       </c>
       <c r="F3">
-        <v>1.145454231633074</v>
+        <v>0.6792304678765078</v>
       </c>
       <c r="G3">
-        <v>1.013717250105017</v>
+        <v>0.5978303192839149</v>
       </c>
       <c r="H3">
-        <v>1.030586693653234</v>
+        <v>0.4284430154618803</v>
       </c>
       <c r="I3">
-        <v>1.136932692954822</v>
+        <v>0.6235323792073189</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.843690623782379</v>
+        <v>4.532044442767187</v>
       </c>
       <c r="L3">
-        <v>0.1720506178564349</v>
+        <v>0.1703151446237499</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1788923657700394</v>
+        <v>0.1620865891054137</v>
       </c>
       <c r="D4">
-        <v>0.04853878181821258</v>
+        <v>0.03598872040632273</v>
       </c>
       <c r="E4">
-        <v>0.1287250105586075</v>
+        <v>0.1183981973875987</v>
       </c>
       <c r="F4">
-        <v>1.149235787768241</v>
+        <v>0.6533370892101473</v>
       </c>
       <c r="G4">
-        <v>1.018985421664098</v>
+        <v>0.5772934752230583</v>
       </c>
       <c r="H4">
-        <v>1.037848361948718</v>
+        <v>0.4260955365894148</v>
       </c>
       <c r="I4">
-        <v>1.141375619945109</v>
+        <v>0.6029135048280096</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.716211987121824</v>
+        <v>4.109859018808379</v>
       </c>
       <c r="L4">
-        <v>0.1695250733299645</v>
+        <v>0.1573695492320795</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1775160746595645</v>
+        <v>0.1564618723216427</v>
       </c>
       <c r="D5">
-        <v>0.04848333679548844</v>
+        <v>0.03577194040065379</v>
       </c>
       <c r="E5">
-        <v>0.1278775951902986</v>
+        <v>0.1144136609290705</v>
       </c>
       <c r="F5">
-        <v>1.15103905357784</v>
+        <v>0.6434218183527136</v>
       </c>
       <c r="G5">
-        <v>1.021395089903862</v>
+        <v>0.5696035360901277</v>
       </c>
       <c r="H5">
-        <v>1.040992859409414</v>
+        <v>0.4255214865118973</v>
       </c>
       <c r="I5">
-        <v>1.143427150055693</v>
+        <v>0.5950720256149182</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.664272126068113</v>
+        <v>3.938237161960615</v>
       </c>
       <c r="L5">
-        <v>0.1685234280835388</v>
+        <v>0.1521662846634158</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1772885057303597</v>
+        <v>0.1555299159138315</v>
       </c>
       <c r="D6">
-        <v>0.0484743488291528</v>
+        <v>0.0357364854661455</v>
       </c>
       <c r="E6">
-        <v>0.1277379198098636</v>
+        <v>0.1137544394263017</v>
       </c>
       <c r="F6">
-        <v>1.151354294680644</v>
+        <v>0.6418123992315472</v>
       </c>
       <c r="G6">
-        <v>1.021811052689586</v>
+        <v>0.568366071394891</v>
       </c>
       <c r="H6">
-        <v>1.041526180475898</v>
+        <v>0.4254485548059677</v>
       </c>
       <c r="I6">
-        <v>1.143782337231656</v>
+        <v>0.5938025967858138</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.655648132605052</v>
+        <v>3.909761794314818</v>
       </c>
       <c r="L6">
-        <v>0.168358766454638</v>
+        <v>0.1513064238583226</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1788737400921718</v>
+        <v>0.1620105937397085</v>
       </c>
       <c r="D7">
-        <v>0.04853801941941427</v>
+        <v>0.03598576011086507</v>
       </c>
       <c r="E7">
-        <v>0.1287135124704939</v>
+        <v>0.118344296233186</v>
       </c>
       <c r="F7">
-        <v>1.14925904672485</v>
+        <v>0.6532008567433323</v>
       </c>
       <c r="G7">
-        <v>1.019016856679599</v>
+        <v>0.5771870880660401</v>
       </c>
       <c r="H7">
-        <v>1.037890020010153</v>
+        <v>0.4260862783955872</v>
       </c>
       <c r="I7">
-        <v>1.141402312875165</v>
+        <v>0.6028055370373906</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.715511470256217</v>
+        <v>4.107542902442219</v>
       </c>
       <c r="L7">
-        <v>0.1695114534054056</v>
+        <v>0.1572990940628003</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1860086490434014</v>
+        <v>0.1909341258046737</v>
       </c>
       <c r="D8">
-        <v>0.04885066839242569</v>
+        <v>0.03716944714646786</v>
       </c>
       <c r="E8">
-        <v>0.1331694670379662</v>
+        <v>0.1389807174015836</v>
       </c>
       <c r="F8">
-        <v>1.142318193524069</v>
+        <v>0.7091806913631586</v>
       </c>
       <c r="G8">
-        <v>1.008997548936136</v>
+        <v>0.622222665575606</v>
       </c>
       <c r="H8">
-        <v>1.023472447383924</v>
+        <v>0.432327472698887</v>
       </c>
       <c r="I8">
-        <v>1.133017754794409</v>
+        <v>0.6475752354017459</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.979746949826676</v>
+        <v>4.984319282150011</v>
       </c>
       <c r="L8">
-        <v>0.1748399460303602</v>
+        <v>0.1843982129498016</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.20049936208774</v>
+        <v>0.2491618253424974</v>
       </c>
       <c r="D9">
-        <v>0.04957688409280081</v>
+        <v>0.03984697125422088</v>
       </c>
       <c r="E9">
-        <v>0.1424515359767256</v>
+        <v>0.1811681558861196</v>
       </c>
       <c r="F9">
-        <v>1.137059962545237</v>
+        <v>0.8431916344640058</v>
       </c>
       <c r="G9">
-        <v>0.9977387732792806</v>
+        <v>0.7364824616907271</v>
       </c>
       <c r="H9">
-        <v>1.001079995551805</v>
+        <v>0.4587087705291424</v>
       </c>
       <c r="I9">
-        <v>1.124243583198449</v>
+        <v>0.7566271398955564</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.498079835246699</v>
+        <v>6.726380110130833</v>
       </c>
       <c r="L9">
-        <v>0.1861646523769309</v>
+        <v>0.2404606961261919</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2114494559152149</v>
+        <v>0.2932241423363564</v>
       </c>
       <c r="D10">
-        <v>0.05017891554908971</v>
+        <v>0.04209325577963341</v>
       </c>
       <c r="E10">
-        <v>0.1496054836867771</v>
+        <v>0.2135796715801419</v>
       </c>
       <c r="F10">
-        <v>1.138354748893875</v>
+        <v>0.9602856239847171</v>
       </c>
       <c r="G10">
-        <v>0.9946604034117854</v>
+        <v>0.8404547021948616</v>
       </c>
       <c r="H10">
-        <v>0.9882405648529016</v>
+        <v>0.4886405245626264</v>
       </c>
       <c r="I10">
-        <v>1.122525652085855</v>
+        <v>0.853024033726598</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.878976170875148</v>
+        <v>8.029083052855412</v>
       </c>
       <c r="L10">
-        <v>0.1950257748280251</v>
+        <v>0.2840355001871302</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2164969004055308</v>
+        <v>0.3136387752337555</v>
       </c>
       <c r="D11">
-        <v>0.05046759049043459</v>
+        <v>0.04319202570039238</v>
       </c>
       <c r="E11">
-        <v>0.1529332925827731</v>
+        <v>0.2287245421760176</v>
       </c>
       <c r="F11">
-        <v>1.140078150508117</v>
+        <v>1.018569574672384</v>
       </c>
       <c r="G11">
-        <v>0.9944048614466681</v>
+        <v>0.8931595068273168</v>
       </c>
       <c r="H11">
-        <v>0.9831899402261541</v>
+        <v>0.505032349205166</v>
       </c>
       <c r="I11">
-        <v>1.122782612589134</v>
+        <v>0.9012441954822066</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.052270830510452</v>
+        <v>8.628934206940528</v>
       </c>
       <c r="L11">
-        <v>0.1991759921722434</v>
+        <v>0.30452894963868</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2184177289688023</v>
+        <v>0.3214310166347616</v>
       </c>
       <c r="D12">
-        <v>0.05057902660885105</v>
+        <v>0.0436207472705803</v>
       </c>
       <c r="E12">
-        <v>0.1542040457126959</v>
+        <v>0.234525785674343</v>
       </c>
       <c r="F12">
-        <v>1.140895019662054</v>
+        <v>1.041452826776037</v>
       </c>
       <c r="G12">
-        <v>0.9944740987722014</v>
+        <v>0.9139947121410472</v>
       </c>
       <c r="H12">
-        <v>0.9813915082108338</v>
+        <v>0.5116844095200292</v>
       </c>
       <c r="I12">
-        <v>1.123030179069204</v>
+        <v>0.9202105908036486</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.117895372748649</v>
+        <v>8.857335191938091</v>
       </c>
       <c r="L12">
-        <v>0.2007648289836652</v>
+        <v>0.3124000642528983</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2180036236845524</v>
+        <v>0.3197499319598762</v>
       </c>
       <c r="D13">
-        <v>0.05055493262563715</v>
+        <v>0.04352782468839678</v>
       </c>
       <c r="E13">
-        <v>0.1539298951760415</v>
+        <v>0.2332732922837977</v>
       </c>
       <c r="F13">
-        <v>1.140711768991622</v>
+        <v>1.036486820763855</v>
       </c>
       <c r="G13">
-        <v>0.9944517820972152</v>
+        <v>0.9094667660126419</v>
       </c>
       <c r="H13">
-        <v>0.9817737485336693</v>
+        <v>0.5102312018899511</v>
       </c>
       <c r="I13">
-        <v>1.122970163405455</v>
+        <v>0.9160930768383651</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.103761907818694</v>
+        <v>8.808085767568286</v>
       </c>
       <c r="L13">
-        <v>0.200421876336776</v>
+        <v>0.3106997125760813</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2166547385820081</v>
+        <v>0.3142785604328253</v>
       </c>
       <c r="D14">
-        <v>0.05047671593841585</v>
+        <v>0.04322703370698378</v>
       </c>
       <c r="E14">
-        <v>0.1530376259487696</v>
+        <v>0.2292004344011147</v>
       </c>
       <c r="F14">
-        <v>1.14014205644115</v>
+        <v>1.020435355119986</v>
       </c>
       <c r="G14">
-        <v>0.9944072227199285</v>
+        <v>0.8948554445090622</v>
       </c>
       <c r="H14">
-        <v>0.9830396918496831</v>
+        <v>0.5055704228825562</v>
       </c>
       <c r="I14">
-        <v>1.122799963222249</v>
+        <v>0.9027899338551748</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.057669778183993</v>
+        <v>8.647698555246564</v>
       </c>
       <c r="L14">
-        <v>0.1993063606947771</v>
+        <v>0.3051742055337883</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2158297395207569</v>
+        <v>0.3109354825399464</v>
       </c>
       <c r="D15">
-        <v>0.05042908197333418</v>
+        <v>0.04304448739575406</v>
       </c>
       <c r="E15">
-        <v>0.1524924643576711</v>
+        <v>0.2267145850615009</v>
       </c>
       <c r="F15">
-        <v>1.139814515401582</v>
+        <v>1.010712036672786</v>
       </c>
       <c r="G15">
-        <v>0.9944015886927531</v>
+        <v>0.8860229486129896</v>
       </c>
       <c r="H15">
-        <v>0.9838299970971178</v>
+        <v>0.5027749356853377</v>
       </c>
       <c r="I15">
-        <v>1.12271530686354</v>
+        <v>0.8947358500460751</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.029437179159856</v>
+        <v>8.549626183342411</v>
       </c>
       <c r="L15">
-        <v>0.1986253230057855</v>
+        <v>0.3018045366738562</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2111209213991856</v>
+        <v>0.291898149351681</v>
       </c>
       <c r="D16">
-        <v>0.05016034721402463</v>
+        <v>0.04202312668447661</v>
       </c>
       <c r="E16">
-        <v>0.1493894833534668</v>
+        <v>0.2125986946972063</v>
       </c>
       <c r="F16">
-        <v>1.138265043981633</v>
+        <v>0.9565851358072024</v>
       </c>
       <c r="G16">
-        <v>0.994700258449285</v>
+        <v>0.8371273811439437</v>
       </c>
       <c r="H16">
-        <v>0.988586577776033</v>
+        <v>0.487628924905934</v>
       </c>
       <c r="I16">
-        <v>1.122529835122528</v>
+        <v>0.8499671353287468</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.86765127410672</v>
+        <v>7.990044458465036</v>
       </c>
       <c r="L16">
-        <v>0.1947569557610223</v>
+        <v>0.2827108858639775</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2082491329724689</v>
+        <v>0.2803199349670535</v>
       </c>
       <c r="D17">
-        <v>0.04999927366703361</v>
+        <v>0.04141731506997104</v>
       </c>
       <c r="E17">
-        <v>0.1475047314892279</v>
+        <v>0.204047503093598</v>
       </c>
       <c r="F17">
-        <v>1.137605842237548</v>
+        <v>0.9247266785167483</v>
       </c>
       <c r="G17">
-        <v>0.9951776811077053</v>
+        <v>0.8085838413163629</v>
       </c>
       <c r="H17">
-        <v>0.9917073142396617</v>
+        <v>0.479079200735967</v>
       </c>
       <c r="I17">
-        <v>1.122682689960818</v>
+        <v>0.8236749145972482</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.768405529410245</v>
+        <v>7.64875602202676</v>
       </c>
       <c r="L17">
-        <v>0.1924144449815373</v>
+        <v>0.2711790330147181</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2066035892350158</v>
+        <v>0.2736947685583004</v>
       </c>
       <c r="D18">
-        <v>0.04990802263182559</v>
+        <v>0.0410760021974923</v>
       </c>
       <c r="E18">
-        <v>0.1464275833363402</v>
+        <v>0.1991662335034619</v>
       </c>
       <c r="F18">
-        <v>1.137333393933275</v>
+        <v>0.9068687896349132</v>
       </c>
       <c r="G18">
-        <v>0.9955599554776029</v>
+        <v>0.7926687426274412</v>
       </c>
       <c r="H18">
-        <v>0.9935766160399737</v>
+        <v>0.4744198704904221</v>
       </c>
       <c r="I18">
-        <v>1.122868296483318</v>
+        <v>0.8089583626828514</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.711324264562052</v>
+        <v>7.453124087261699</v>
       </c>
       <c r="L18">
-        <v>0.1910783133780285</v>
+        <v>0.2646084409091287</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2060475084024063</v>
+        <v>0.2714572538728248</v>
       </c>
       <c r="D19">
-        <v>0.04987736632060091</v>
+        <v>0.04096162007681414</v>
       </c>
       <c r="E19">
-        <v>0.1460640658077494</v>
+        <v>0.1975196534638926</v>
       </c>
       <c r="F19">
-        <v>1.137259440294969</v>
+        <v>0.9008998853475987</v>
       </c>
       <c r="G19">
-        <v>0.9957078379985518</v>
+        <v>0.7873635960189773</v>
       </c>
       <c r="H19">
-        <v>0.994222281257251</v>
+        <v>0.4728853447631991</v>
       </c>
       <c r="I19">
-        <v>1.122947889387909</v>
+        <v>0.8040430832904235</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.691997970304612</v>
+        <v>7.386995249295069</v>
       </c>
       <c r="L19">
-        <v>0.1906278462124362</v>
+        <v>0.2623940313371378</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2085541950089009</v>
+        <v>0.2815488461598079</v>
       </c>
       <c r="D20">
-        <v>0.05001627598906566</v>
+        <v>0.04148105564843263</v>
       </c>
       <c r="E20">
-        <v>0.1477046510869471</v>
+        <v>0.2049538879757975</v>
       </c>
       <c r="F20">
-        <v>1.137664963465355</v>
+        <v>0.9280691834910044</v>
       </c>
       <c r="G20">
-        <v>0.9951157048876809</v>
+        <v>0.8115696688332292</v>
       </c>
       <c r="H20">
-        <v>0.9913674092504436</v>
+        <v>0.4799622913029538</v>
       </c>
       <c r="I20">
-        <v>1.122656301200621</v>
+        <v>0.8264312036536126</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.778970186634695</v>
+        <v>7.685016171035272</v>
       </c>
       <c r="L20">
-        <v>0.192662647505017</v>
+        <v>0.2724000806178566</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.217050682165052</v>
+        <v>0.3158838898746126</v>
       </c>
       <c r="D21">
-        <v>0.050499632567508</v>
+        <v>0.04331502655600872</v>
       </c>
       <c r="E21">
-        <v>0.1532994196089632</v>
+        <v>0.2303948613416935</v>
       </c>
       <c r="F21">
-        <v>1.140304927991423</v>
+        <v>1.025127236582591</v>
       </c>
       <c r="G21">
-        <v>0.9944157945195968</v>
+        <v>0.8991224923374972</v>
       </c>
       <c r="H21">
-        <v>0.982664752039426</v>
+        <v>0.5069269440829771</v>
       </c>
       <c r="I21">
-        <v>1.122845869648316</v>
+        <v>0.9066775485323006</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.071208123272299</v>
+        <v>8.694772452976736</v>
       </c>
       <c r="L21">
-        <v>0.199633546063481</v>
+        <v>0.306794055663687</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2226588105664291</v>
+        <v>0.3386878305408629</v>
       </c>
       <c r="D22">
-        <v>0.0508278948010954</v>
+        <v>0.04458821166665672</v>
       </c>
       <c r="E22">
-        <v>0.1570176282272868</v>
+        <v>0.2474126335657445</v>
       </c>
       <c r="F22">
-        <v>1.142988224326942</v>
+        <v>1.093345300139276</v>
       </c>
       <c r="G22">
-        <v>0.9949266137114563</v>
+        <v>0.9615099830833742</v>
       </c>
       <c r="H22">
-        <v>0.9776425399421385</v>
+        <v>0.5271678155894506</v>
       </c>
       <c r="I22">
-        <v>1.123846035795268</v>
+        <v>0.9632839280561001</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.262211185474825</v>
+        <v>9.362109078933145</v>
       </c>
       <c r="L22">
-        <v>0.2042899603186754</v>
+        <v>0.3299254840711967</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2196606128287044</v>
+        <v>0.326480610932208</v>
       </c>
       <c r="D23">
-        <v>0.05065156650765346</v>
+        <v>0.04390128437083973</v>
       </c>
       <c r="E23">
-        <v>0.1550274964213614</v>
+        <v>0.2382910902766753</v>
       </c>
       <c r="F23">
-        <v>1.141468074078929</v>
+        <v>1.056465435028457</v>
       </c>
       <c r="G23">
-        <v>0.9945649274622781</v>
+        <v>0.9277039617772544</v>
       </c>
       <c r="H23">
-        <v>0.9802619269705986</v>
+        <v>0.516108852430051</v>
       </c>
       <c r="I23">
-        <v>1.123231740280474</v>
+        <v>0.932663102503497</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.160269005228542</v>
+        <v>9.005186396578097</v>
       </c>
       <c r="L23">
-        <v>0.2017955152659425</v>
+        <v>0.3175149361754137</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2084162593723988</v>
+        <v>0.2809931585294407</v>
       </c>
       <c r="D24">
-        <v>0.05000858502614847</v>
+        <v>0.04145221691987899</v>
       </c>
       <c r="E24">
-        <v>0.147614247439698</v>
+        <v>0.2045440032258767</v>
       </c>
       <c r="F24">
-        <v>1.137637902995834</v>
+        <v>0.9265566172846178</v>
       </c>
       <c r="G24">
-        <v>0.9951433886623704</v>
+        <v>0.8102182418930255</v>
       </c>
       <c r="H24">
-        <v>0.9915208462507223</v>
+        <v>0.4795622520009459</v>
       </c>
       <c r="I24">
-        <v>1.122667927215552</v>
+        <v>0.8251838477688977</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.774193978381334</v>
+        <v>7.668621168637742</v>
       </c>
       <c r="L24">
-        <v>0.1925504021069031</v>
+        <v>0.2718478615802553</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1965258633609182</v>
+        <v>0.2332128533219446</v>
       </c>
       <c r="D25">
-        <v>0.04936836683871348</v>
+        <v>0.0390785762213639</v>
       </c>
       <c r="E25">
-        <v>0.1398819706826941</v>
+        <v>0.1695354050004241</v>
       </c>
       <c r="F25">
-        <v>1.137581426945033</v>
+        <v>0.8039673683231001</v>
       </c>
       <c r="G25">
-        <v>0.9998782826928476</v>
+        <v>0.7023847836614436</v>
       </c>
       <c r="H25">
-        <v>1.006505382199904</v>
+        <v>0.4498702500758327</v>
       </c>
       <c r="I25">
-        <v>1.125790767114005</v>
+        <v>0.7245268498373818</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.357841927717573</v>
+        <v>6.251804251510748</v>
       </c>
       <c r="L25">
-        <v>0.1830065565206098</v>
+        <v>0.2249227091975428</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_19/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,34 +430,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1988608011565702</v>
+        <v>0.06906275305179577</v>
       </c>
       <c r="D2">
-        <v>0.037512255853418</v>
+        <v>0.1133001321339862</v>
       </c>
       <c r="E2">
-        <v>0.1446760744962354</v>
+        <v>1.566050852166711</v>
       </c>
       <c r="F2">
-        <v>0.7258577924736613</v>
+        <v>3.929300314427252</v>
       </c>
       <c r="G2">
-        <v>0.6360385974744815</v>
+        <v>4.508304365649678</v>
       </c>
       <c r="H2">
-        <v>0.4349104551361336</v>
+        <v>0.03713851012177827</v>
       </c>
       <c r="I2">
-        <v>0.6610320960179408</v>
+        <v>0.1028902955145843</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2.304428278179614</v>
       </c>
       <c r="K2">
-        <v>5.223116306788768</v>
+        <v>3.086625722822575</v>
       </c>
       <c r="L2">
-        <v>0.1919179770671207</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -462,8 +468,14 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,34 +483,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1759768390470668</v>
+        <v>0.05965663027508583</v>
       </c>
       <c r="D3">
-        <v>0.03654351574092374</v>
+        <v>0.09900865478537213</v>
       </c>
       <c r="E3">
-        <v>0.1282792969630577</v>
+        <v>1.357355519517313</v>
       </c>
       <c r="F3">
-        <v>0.6792304678765078</v>
+        <v>3.422973242572709</v>
       </c>
       <c r="G3">
-        <v>0.5978303192839149</v>
+        <v>3.918004146839706</v>
       </c>
       <c r="H3">
-        <v>0.4284430154618803</v>
+        <v>0.02817085424511445</v>
       </c>
       <c r="I3">
-        <v>0.6235323792073189</v>
+        <v>0.08175924793845235</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2.021951438288482</v>
       </c>
       <c r="K3">
-        <v>4.532044442767187</v>
+        <v>2.694366180750848</v>
       </c>
       <c r="L3">
-        <v>0.1703151446237499</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -509,8 +521,14 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,34 +536,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1620865891054137</v>
+        <v>0.05416912227672555</v>
       </c>
       <c r="D4">
-        <v>0.03598872040632273</v>
+        <v>0.09022291575492147</v>
       </c>
       <c r="E4">
-        <v>0.1183981973875987</v>
+        <v>1.230761943644865</v>
       </c>
       <c r="F4">
-        <v>0.6533370892101473</v>
+        <v>3.114631893911849</v>
       </c>
       <c r="G4">
-        <v>0.5772934752230583</v>
+        <v>3.558241174951121</v>
       </c>
       <c r="H4">
-        <v>0.4260955365894148</v>
+        <v>0.02316114042555695</v>
       </c>
       <c r="I4">
-        <v>0.6029135048280096</v>
+        <v>0.06975384281562969</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.849858969442664</v>
       </c>
       <c r="K4">
-        <v>4.109859018808379</v>
+        <v>2.454900218908122</v>
       </c>
       <c r="L4">
-        <v>0.1573695492320795</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -556,8 +574,14 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,34 +589,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1564618723216427</v>
+        <v>0.05210957140340611</v>
       </c>
       <c r="D5">
-        <v>0.03577194040065379</v>
+        <v>0.08644987264336379</v>
       </c>
       <c r="E5">
-        <v>0.1144136609290705</v>
+        <v>1.179392759409197</v>
       </c>
       <c r="F5">
-        <v>0.6434218183527136</v>
+        <v>2.986597592042784</v>
       </c>
       <c r="G5">
-        <v>0.5696035360901277</v>
+        <v>3.408551924724975</v>
       </c>
       <c r="H5">
-        <v>0.4255214865118973</v>
+        <v>0.02121907751346974</v>
       </c>
       <c r="I5">
-        <v>0.5950720256149182</v>
+        <v>0.06504948955702083</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.778209543833043</v>
       </c>
       <c r="K5">
-        <v>3.938237161960615</v>
+        <v>2.35449041200124</v>
       </c>
       <c r="L5">
-        <v>0.1521662846634158</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -603,8 +627,14 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,34 +642,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1555299159138315</v>
+        <v>0.0519135066324381</v>
       </c>
       <c r="D6">
-        <v>0.0357364854661455</v>
+        <v>0.08559404660530845</v>
       </c>
       <c r="E6">
-        <v>0.1137544394263017</v>
+        <v>1.170759614795529</v>
       </c>
       <c r="F6">
-        <v>0.6418123992315472</v>
+        <v>2.961832217537335</v>
       </c>
       <c r="G6">
-        <v>0.568366071394891</v>
+        <v>3.379315959004373</v>
       </c>
       <c r="H6">
-        <v>0.4254485548059677</v>
+        <v>0.02088910622032492</v>
       </c>
       <c r="I6">
-        <v>0.5938025967858138</v>
+        <v>0.06425796095696867</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.764141779937574</v>
       </c>
       <c r="K6">
-        <v>3.909761794314818</v>
+        <v>2.33406668011969</v>
       </c>
       <c r="L6">
-        <v>0.1513064238583226</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -650,8 +680,14 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,34 +695,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1620105937397085</v>
+        <v>0.05452857989052973</v>
       </c>
       <c r="D7">
-        <v>0.03598576011086507</v>
+        <v>0.08954292667083763</v>
       </c>
       <c r="E7">
-        <v>0.118344296233186</v>
+        <v>1.229729034929946</v>
       </c>
       <c r="F7">
-        <v>0.6532008567433323</v>
+        <v>3.103197370561389</v>
       </c>
       <c r="G7">
-        <v>0.5771870880660401</v>
+        <v>3.544108377321123</v>
       </c>
       <c r="H7">
-        <v>0.4260862783955872</v>
+        <v>0.02309462397971584</v>
       </c>
       <c r="I7">
-        <v>0.6028055370373906</v>
+        <v>0.06960527471226108</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.842891122875017</v>
       </c>
       <c r="K7">
-        <v>4.107542902442219</v>
+        <v>2.443205414426927</v>
       </c>
       <c r="L7">
-        <v>0.1572990940628003</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -697,8 +733,14 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,34 +748,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1909341258046737</v>
+        <v>0.06626707594448078</v>
       </c>
       <c r="D8">
-        <v>0.03716944714646786</v>
+        <v>0.1075238286914413</v>
       </c>
       <c r="E8">
-        <v>0.1389807174015836</v>
+        <v>1.493229860114226</v>
       </c>
       <c r="F8">
-        <v>0.7091806913631586</v>
+        <v>3.740993073537908</v>
       </c>
       <c r="G8">
-        <v>0.622222665575606</v>
+        <v>4.287748952178902</v>
       </c>
       <c r="H8">
-        <v>0.432327472698887</v>
+        <v>0.03387090177332208</v>
       </c>
       <c r="I8">
-        <v>0.6475752354017459</v>
+        <v>0.09520504614114778</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>2.198606671529035</v>
       </c>
       <c r="K8">
-        <v>4.984319282150011</v>
+        <v>2.937072137022966</v>
       </c>
       <c r="L8">
-        <v>0.1843982129498016</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -744,8 +786,14 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,34 +801,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2491618253424974</v>
+        <v>0.09141120203051045</v>
       </c>
       <c r="D9">
-        <v>0.03984697125422088</v>
+        <v>0.1439984033179798</v>
       </c>
       <c r="E9">
-        <v>0.1811681558861196</v>
+        <v>2.026478832118329</v>
       </c>
       <c r="F9">
-        <v>0.8431916344640058</v>
+        <v>5.03659216856866</v>
       </c>
       <c r="G9">
-        <v>0.7364824616907271</v>
+        <v>5.797419758911701</v>
       </c>
       <c r="H9">
-        <v>0.4587087705291424</v>
+        <v>0.05973270864252633</v>
       </c>
       <c r="I9">
-        <v>0.7566271398955564</v>
+        <v>0.1549361366679198</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>2.921624960756674</v>
       </c>
       <c r="K9">
-        <v>6.726380110130833</v>
+        <v>3.940382561415845</v>
       </c>
       <c r="L9">
-        <v>0.2404606961261919</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -791,8 +839,14 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,34 +854,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2932241423363564</v>
+        <v>0.111179061119266</v>
       </c>
       <c r="D10">
-        <v>0.04209325577963341</v>
+        <v>0.1671529417644422</v>
       </c>
       <c r="E10">
-        <v>0.2135796715801419</v>
+        <v>2.32065690225302</v>
       </c>
       <c r="F10">
-        <v>0.9602856239847171</v>
+        <v>5.953392147186946</v>
       </c>
       <c r="G10">
-        <v>0.8404547021948616</v>
+        <v>6.858863739197488</v>
       </c>
       <c r="H10">
-        <v>0.4886405245626264</v>
+        <v>0.08076601342338563</v>
       </c>
       <c r="I10">
-        <v>0.853024033726598</v>
+        <v>0.2048374620436952</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>3.429425662428685</v>
       </c>
       <c r="K10">
-        <v>8.029083052855412</v>
+        <v>4.64397215028913</v>
       </c>
       <c r="L10">
-        <v>0.2840355001871302</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -838,8 +892,14 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,34 +907,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3136387752337555</v>
+        <v>0.1095106471215033</v>
       </c>
       <c r="D11">
-        <v>0.04319202570039238</v>
+        <v>0.1466891508530779</v>
       </c>
       <c r="E11">
-        <v>0.2287245421760176</v>
+        <v>1.583024460001084</v>
       </c>
       <c r="F11">
-        <v>1.018569574672384</v>
+        <v>5.865136696290847</v>
       </c>
       <c r="G11">
-        <v>0.8931595068273168</v>
+        <v>6.711461519130012</v>
       </c>
       <c r="H11">
-        <v>0.505032349205166</v>
+        <v>0.09384449871371459</v>
       </c>
       <c r="I11">
-        <v>0.9012441954822066</v>
+        <v>0.2125156083010609</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>3.351497389285385</v>
       </c>
       <c r="K11">
-        <v>8.628934206940528</v>
+        <v>4.557261647858184</v>
       </c>
       <c r="L11">
-        <v>0.30452894963868</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -885,8 +945,14 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,34 +960,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3214310166347616</v>
+        <v>0.1045642535167346</v>
       </c>
       <c r="D12">
-        <v>0.0436207472705803</v>
+        <v>0.1269333873161003</v>
       </c>
       <c r="E12">
-        <v>0.234525785674343</v>
+        <v>1.039193109662378</v>
       </c>
       <c r="F12">
-        <v>1.041452826776037</v>
+        <v>5.614112146628315</v>
       </c>
       <c r="G12">
-        <v>0.9139947121410472</v>
+        <v>6.386275640106817</v>
       </c>
       <c r="H12">
-        <v>0.5116844095200292</v>
+        <v>0.1261281472023512</v>
       </c>
       <c r="I12">
-        <v>0.9202105908036486</v>
+        <v>0.2091664038159546</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>3.189393083913785</v>
       </c>
       <c r="K12">
-        <v>8.857335191938091</v>
+        <v>4.353990249782385</v>
       </c>
       <c r="L12">
-        <v>0.3124000642528983</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -932,8 +998,14 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,34 +1013,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3197499319598762</v>
+        <v>0.09757134619970032</v>
       </c>
       <c r="D13">
-        <v>0.04352782468839678</v>
+        <v>0.1057991025232283</v>
       </c>
       <c r="E13">
-        <v>0.2332732922837977</v>
+        <v>0.6149341582742878</v>
       </c>
       <c r="F13">
-        <v>1.036486820763855</v>
+        <v>5.211010649265916</v>
       </c>
       <c r="G13">
-        <v>0.9094667660126419</v>
+        <v>5.890374899828146</v>
       </c>
       <c r="H13">
-        <v>0.5102312018899511</v>
+        <v>0.1743433221290047</v>
       </c>
       <c r="I13">
-        <v>0.9160930768383651</v>
+        <v>0.1971366407580177</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>2.945555449584049</v>
       </c>
       <c r="K13">
-        <v>8.808085767568286</v>
+        <v>4.035276527536979</v>
       </c>
       <c r="L13">
-        <v>0.3106997125760813</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -979,8 +1051,14 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,34 +1066,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3142785604328253</v>
+        <v>0.09212608247811005</v>
       </c>
       <c r="D14">
-        <v>0.04322703370698378</v>
+        <v>0.09060922742785493</v>
       </c>
       <c r="E14">
-        <v>0.2292004344011147</v>
+        <v>0.3925142019408341</v>
       </c>
       <c r="F14">
-        <v>1.020435355119986</v>
+        <v>4.862065406865582</v>
       </c>
       <c r="G14">
-        <v>0.8948554445090622</v>
+        <v>5.468693495645482</v>
       </c>
       <c r="H14">
-        <v>0.5055704228825562</v>
+        <v>0.2182395303858158</v>
       </c>
       <c r="I14">
-        <v>0.9027899338551748</v>
+        <v>0.1853199929482994</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>2.739056775820757</v>
       </c>
       <c r="K14">
-        <v>8.647698555246564</v>
+        <v>3.760767861026977</v>
       </c>
       <c r="L14">
-        <v>0.3051742055337883</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1026,8 +1104,14 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,34 +1119,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3109354825399464</v>
+        <v>0.0902695326852232</v>
       </c>
       <c r="D15">
-        <v>0.04304448739575406</v>
+        <v>0.08631471827767712</v>
       </c>
       <c r="E15">
-        <v>0.2267145850615009</v>
+        <v>0.3464546386706076</v>
       </c>
       <c r="F15">
-        <v>1.010712036672786</v>
+        <v>4.741985195978003</v>
       </c>
       <c r="G15">
-        <v>0.8860229486129896</v>
+        <v>5.32605626299096</v>
       </c>
       <c r="H15">
-        <v>0.5027749356853377</v>
+        <v>0.2288566439153641</v>
       </c>
       <c r="I15">
-        <v>0.8947358500460751</v>
+        <v>0.180567313546617</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>2.66964955075639</v>
       </c>
       <c r="K15">
-        <v>8.549626183342411</v>
+        <v>3.666152802827042</v>
       </c>
       <c r="L15">
-        <v>0.3018045366738562</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1073,8 +1157,14 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,34 +1172,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.291898149351681</v>
+        <v>0.08381477357092493</v>
       </c>
       <c r="D16">
-        <v>0.04202312668447661</v>
+        <v>0.08137706817400669</v>
       </c>
       <c r="E16">
-        <v>0.2125986946972063</v>
+        <v>0.3294466691068969</v>
       </c>
       <c r="F16">
-        <v>0.9565851358072024</v>
+        <v>4.439332770931287</v>
       </c>
       <c r="G16">
-        <v>0.8371273811439437</v>
+        <v>4.983213550338519</v>
       </c>
       <c r="H16">
-        <v>0.487628924905934</v>
+        <v>0.209487210796425</v>
       </c>
       <c r="I16">
-        <v>0.8499671353287468</v>
+        <v>0.162425130747013</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>2.506707173921995</v>
       </c>
       <c r="K16">
-        <v>7.990044458465036</v>
+        <v>3.434960928536668</v>
       </c>
       <c r="L16">
-        <v>0.2827108858639775</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1120,8 +1210,14 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,34 +1225,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2803199349670535</v>
+        <v>0.08162503107464048</v>
       </c>
       <c r="D17">
-        <v>0.04141731506997104</v>
+        <v>0.08530757509358722</v>
       </c>
       <c r="E17">
-        <v>0.204047503093598</v>
+        <v>0.4188644943263355</v>
       </c>
       <c r="F17">
-        <v>0.9247266785167483</v>
+        <v>4.389236707007626</v>
       </c>
       <c r="G17">
-        <v>0.8085838413163629</v>
+        <v>4.939757447804311</v>
       </c>
       <c r="H17">
-        <v>0.479079200735967</v>
+        <v>0.1693121261991877</v>
       </c>
       <c r="I17">
-        <v>0.8236749145972482</v>
+        <v>0.1545705322871216</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>2.489356356724386</v>
       </c>
       <c r="K17">
-        <v>7.64875602202676</v>
+        <v>3.400545269825727</v>
       </c>
       <c r="L17">
-        <v>0.2711790330147181</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1167,8 +1263,14 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,34 +1278,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2736947685583004</v>
+        <v>0.08319193184163964</v>
       </c>
       <c r="D18">
-        <v>0.0410760021974923</v>
+        <v>0.09844498800060109</v>
       </c>
       <c r="E18">
-        <v>0.1991662335034619</v>
+        <v>0.6762161628035059</v>
       </c>
       <c r="F18">
-        <v>0.9068687896349132</v>
+        <v>4.559403615939317</v>
       </c>
       <c r="G18">
-        <v>0.7926687426274412</v>
+        <v>5.160769914244497</v>
       </c>
       <c r="H18">
-        <v>0.4744198704904221</v>
+        <v>0.1182563954809837</v>
       </c>
       <c r="I18">
-        <v>0.8089583626828514</v>
+        <v>0.1546498208386424</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>2.600864177346409</v>
       </c>
       <c r="K18">
-        <v>7.453124087261699</v>
+        <v>3.540820944741455</v>
       </c>
       <c r="L18">
-        <v>0.2646084409091287</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1214,8 +1316,14 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,34 +1331,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2714572538728248</v>
+        <v>0.08912613317002638</v>
       </c>
       <c r="D19">
-        <v>0.04096162007681414</v>
+        <v>0.1183450128792174</v>
       </c>
       <c r="E19">
-        <v>0.1975196534638926</v>
+        <v>1.153598103191044</v>
       </c>
       <c r="F19">
-        <v>0.9008998853475987</v>
+        <v>4.884013338501632</v>
       </c>
       <c r="G19">
-        <v>0.7873635960189773</v>
+        <v>5.567003166041616</v>
       </c>
       <c r="H19">
-        <v>0.4728853447631991</v>
+        <v>0.07950905749326864</v>
       </c>
       <c r="I19">
-        <v>0.8040430832904235</v>
+        <v>0.1617603646819932</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>2.801734960790213</v>
       </c>
       <c r="K19">
-        <v>7.386995249295069</v>
+        <v>3.798678160983656</v>
       </c>
       <c r="L19">
-        <v>0.2623940313371378</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1261,8 +1369,14 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,34 +1384,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2815488461598079</v>
+        <v>0.1069739451460521</v>
       </c>
       <c r="D20">
-        <v>0.04148105564843263</v>
+        <v>0.1588322958357509</v>
       </c>
       <c r="E20">
-        <v>0.2049538879757975</v>
+        <v>2.236282928748921</v>
       </c>
       <c r="F20">
-        <v>0.9280691834910044</v>
+        <v>5.67572230850385</v>
       </c>
       <c r="G20">
-        <v>0.8115696688332292</v>
+        <v>6.53438990292716</v>
       </c>
       <c r="H20">
-        <v>0.4799622913029538</v>
+        <v>0.0746420960365981</v>
       </c>
       <c r="I20">
-        <v>0.8264312036536126</v>
+        <v>0.1904216521988928</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>3.273528315743363</v>
       </c>
       <c r="K20">
-        <v>7.685016171035272</v>
+        <v>4.421575535223099</v>
       </c>
       <c r="L20">
-        <v>0.2724000806178566</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1308,8 +1422,14 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,34 +1437,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3158838898746126</v>
+        <v>0.1252463319338517</v>
       </c>
       <c r="D21">
-        <v>0.04331502655600872</v>
+        <v>0.1826703169084283</v>
       </c>
       <c r="E21">
-        <v>0.2303948613416935</v>
+        <v>2.642560679083346</v>
       </c>
       <c r="F21">
-        <v>1.025127236582591</v>
+        <v>6.485826001471509</v>
       </c>
       <c r="G21">
-        <v>0.8991224923374972</v>
+        <v>7.480302298419133</v>
       </c>
       <c r="H21">
-        <v>0.5069269440829771</v>
+        <v>0.0952402718759835</v>
       </c>
       <c r="I21">
-        <v>0.9066775485323006</v>
+        <v>0.235103159126119</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>3.72750502648114</v>
       </c>
       <c r="K21">
-        <v>8.694772452976736</v>
+        <v>5.046257835708957</v>
       </c>
       <c r="L21">
-        <v>0.306794055663687</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1355,8 +1475,14 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,34 +1490,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3386878305408629</v>
+        <v>0.1367064786954444</v>
       </c>
       <c r="D22">
-        <v>0.04458821166665672</v>
+        <v>0.1974780842356836</v>
       </c>
       <c r="E22">
-        <v>0.2474126335657445</v>
+        <v>2.856634610765184</v>
       </c>
       <c r="F22">
-        <v>1.093345300139276</v>
+        <v>7.009465719252745</v>
       </c>
       <c r="G22">
-        <v>0.9615099830833742</v>
+        <v>8.090117382095571</v>
       </c>
       <c r="H22">
-        <v>0.5271678155894506</v>
+        <v>0.1090150119297686</v>
       </c>
       <c r="I22">
-        <v>0.9632839280561001</v>
+        <v>0.2660861337934692</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.020092987763462</v>
       </c>
       <c r="K22">
-        <v>9.362109078933145</v>
+        <v>5.452477802834096</v>
       </c>
       <c r="L22">
-        <v>0.3299254840711967</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1402,8 +1528,14 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,34 +1543,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.326480610932208</v>
+        <v>0.1300290421146926</v>
       </c>
       <c r="D23">
-        <v>0.04390128437083973</v>
+        <v>0.1903678742790476</v>
       </c>
       <c r="E23">
-        <v>0.2382910902766753</v>
+        <v>2.742538441538741</v>
       </c>
       <c r="F23">
-        <v>1.056465435028457</v>
+        <v>6.741682455812452</v>
       </c>
       <c r="G23">
-        <v>0.9277039617772544</v>
+        <v>7.779346270665883</v>
       </c>
       <c r="H23">
-        <v>0.516108852430051</v>
+        <v>0.1016515501076913</v>
       </c>
       <c r="I23">
-        <v>0.932663102503497</v>
+        <v>0.249590151763039</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>3.871190427370379</v>
       </c>
       <c r="K23">
-        <v>9.005186396578097</v>
+        <v>5.248389289953053</v>
       </c>
       <c r="L23">
-        <v>0.3175149361754137</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1449,8 +1581,14 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,34 +1596,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2809931585294407</v>
+        <v>0.1070992055672519</v>
       </c>
       <c r="D24">
-        <v>0.04145221691987899</v>
+        <v>0.162457980164973</v>
       </c>
       <c r="E24">
-        <v>0.2045440032258767</v>
+        <v>2.319307126321121</v>
       </c>
       <c r="F24">
-        <v>0.9265566172846178</v>
+        <v>5.726347500074127</v>
       </c>
       <c r="G24">
-        <v>0.8102182418930255</v>
+        <v>6.598609686814427</v>
       </c>
       <c r="H24">
-        <v>0.4795622520009459</v>
+        <v>0.07588640609816366</v>
       </c>
       <c r="I24">
-        <v>0.8251838477688977</v>
+        <v>0.1915320730346348</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>3.305208532287509</v>
       </c>
       <c r="K24">
-        <v>7.668621168637742</v>
+        <v>4.467108933482308</v>
       </c>
       <c r="L24">
-        <v>0.2718478615802553</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1496,8 +1634,14 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,34 +1649,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2332128533219446</v>
+        <v>0.08494612628949483</v>
       </c>
       <c r="D25">
-        <v>0.0390785762213639</v>
+        <v>0.1329141237510498</v>
       </c>
       <c r="E25">
-        <v>0.1695354050004241</v>
+        <v>1.879204175865368</v>
       </c>
       <c r="F25">
-        <v>0.8039673683231001</v>
+        <v>4.663737231464467</v>
       </c>
       <c r="G25">
-        <v>0.7023847836614436</v>
+        <v>5.361709532154578</v>
       </c>
       <c r="H25">
-        <v>0.4498702500758327</v>
+        <v>0.05202520286793</v>
       </c>
       <c r="I25">
-        <v>0.7245268498373818</v>
+        <v>0.1372491228800419</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>2.712553505478411</v>
       </c>
       <c r="K25">
-        <v>6.251804251510748</v>
+        <v>3.646949644517633</v>
       </c>
       <c r="L25">
-        <v>0.2249227091975428</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,6 +1685,12 @@
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_19/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,37 +436,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.06906275305179577</v>
+        <v>0.1516151599871876</v>
       </c>
       <c r="D2">
-        <v>0.1133001321339862</v>
+        <v>0.06150615272524362</v>
       </c>
       <c r="E2">
-        <v>1.566050852166711</v>
+        <v>1.503955040900877</v>
       </c>
       <c r="F2">
-        <v>3.929300314427252</v>
+        <v>3.013468388852971</v>
       </c>
       <c r="G2">
-        <v>4.508304365649678</v>
+        <v>3.353216413146157</v>
       </c>
       <c r="H2">
-        <v>0.03713851012177827</v>
+        <v>0.02913911967390792</v>
       </c>
       <c r="I2">
-        <v>0.1028902955145843</v>
+        <v>0.06927560642597363</v>
       </c>
       <c r="J2">
-        <v>2.304428278179614</v>
+        <v>1.822570730290636</v>
       </c>
       <c r="K2">
-        <v>3.086625722822575</v>
+        <v>2.144962202920425</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.8969168390620155</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.7652060591326659</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -474,8 +480,14 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,37 +495,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.05965663027508583</v>
+        <v>0.1287848641388791</v>
       </c>
       <c r="D3">
-        <v>0.09900865478537213</v>
+        <v>0.05488046795247925</v>
       </c>
       <c r="E3">
-        <v>1.357355519517313</v>
+        <v>1.308039047531736</v>
       </c>
       <c r="F3">
-        <v>3.422973242572709</v>
+        <v>2.648161958521342</v>
       </c>
       <c r="G3">
-        <v>3.918004146839706</v>
+        <v>2.933839693128448</v>
       </c>
       <c r="H3">
-        <v>0.02817085424511445</v>
+        <v>0.02219360103844759</v>
       </c>
       <c r="I3">
-        <v>0.08175924793845235</v>
+        <v>0.05601523341475589</v>
       </c>
       <c r="J3">
-        <v>2.021951438288482</v>
+        <v>1.623391600679554</v>
       </c>
       <c r="K3">
-        <v>2.694366180750848</v>
+        <v>1.894867154155079</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.8272190624618219</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.6434331786571903</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -527,8 +539,14 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,37 +554,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.05416912227672555</v>
+        <v>0.1152919844144407</v>
       </c>
       <c r="D4">
-        <v>0.09022291575492147</v>
+        <v>0.05074113964915483</v>
       </c>
       <c r="E4">
-        <v>1.230761943644865</v>
+        <v>1.188662489969744</v>
       </c>
       <c r="F4">
-        <v>3.114631893911849</v>
+        <v>2.424365227843595</v>
       </c>
       <c r="G4">
-        <v>3.558241174951121</v>
+        <v>2.677099577382933</v>
       </c>
       <c r="H4">
-        <v>0.02316114042555695</v>
+        <v>0.01829077135208967</v>
       </c>
       <c r="I4">
-        <v>0.06975384281562969</v>
+        <v>0.04839904643933357</v>
       </c>
       <c r="J4">
-        <v>1.849858969442664</v>
+        <v>1.500772831384609</v>
       </c>
       <c r="K4">
-        <v>2.454900218908122</v>
+        <v>1.7409976681692</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.7832991321725586</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.5701927729134795</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -580,8 +598,14 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,37 +613,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.05210957140340611</v>
+        <v>0.1102599943268245</v>
       </c>
       <c r="D5">
-        <v>0.08644987264336379</v>
+        <v>0.04891406432151513</v>
       </c>
       <c r="E5">
-        <v>1.179392759409197</v>
+        <v>1.140129861239927</v>
       </c>
       <c r="F5">
-        <v>2.986597592042784</v>
+        <v>2.330937973526801</v>
       </c>
       <c r="G5">
-        <v>3.408551924724975</v>
+        <v>2.569762034275811</v>
       </c>
       <c r="H5">
-        <v>0.02121907751346974</v>
+        <v>0.01677425259756626</v>
       </c>
       <c r="I5">
-        <v>0.06504948955702083</v>
+        <v>0.04542278052753534</v>
       </c>
       <c r="J5">
-        <v>1.778209543833043</v>
+        <v>1.44927457061425</v>
       </c>
       <c r="K5">
-        <v>2.35449041200124</v>
+        <v>1.67585528530023</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.7641883751111465</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.539864922616367</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -633,8 +657,14 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,37 +672,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0519135066324381</v>
+        <v>0.1098590886700066</v>
       </c>
       <c r="D6">
-        <v>0.08559404660530845</v>
+        <v>0.04846055685456463</v>
       </c>
       <c r="E6">
-        <v>1.170759614795529</v>
+        <v>1.131995672441491</v>
       </c>
       <c r="F6">
-        <v>2.961832217537335</v>
+        <v>2.312623988512058</v>
       </c>
       <c r="G6">
-        <v>3.379315959004373</v>
+        <v>2.548491664612982</v>
       </c>
       <c r="H6">
-        <v>0.02088910622032492</v>
+        <v>0.01651772732719015</v>
       </c>
       <c r="I6">
-        <v>0.06425796095696867</v>
+        <v>0.04495776011335284</v>
       </c>
       <c r="J6">
-        <v>1.764141779937574</v>
+        <v>1.438970769292695</v>
       </c>
       <c r="K6">
-        <v>2.33406668011969</v>
+        <v>1.662187536055583</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.7598687886384283</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.5338220184107882</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -686,8 +716,14 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,37 +731,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.05452857989052973</v>
+        <v>0.1160568421283728</v>
       </c>
       <c r="D7">
-        <v>0.08954292667083763</v>
+        <v>0.05006129782361768</v>
       </c>
       <c r="E7">
-        <v>1.229729034929946</v>
+        <v>1.187660653051921</v>
       </c>
       <c r="F7">
-        <v>3.103197370561389</v>
+        <v>2.410807164421783</v>
       </c>
       <c r="G7">
-        <v>3.544108377321123</v>
+        <v>2.673296065766124</v>
       </c>
       <c r="H7">
-        <v>0.02309462397971584</v>
+        <v>0.01823068928063121</v>
       </c>
       <c r="I7">
-        <v>0.06960527471226108</v>
+        <v>0.04835430669426088</v>
       </c>
       <c r="J7">
-        <v>1.842891122875017</v>
+        <v>1.479025749179044</v>
       </c>
       <c r="K7">
-        <v>2.443205414426927</v>
+        <v>1.728999981570325</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.7786688758701104</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.5657239800800014</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -739,8 +775,14 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,37 +790,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.06626707594448078</v>
+        <v>0.1440553264547191</v>
       </c>
       <c r="D8">
-        <v>0.1075238286914413</v>
+        <v>0.05786924178796227</v>
       </c>
       <c r="E8">
-        <v>1.493229860114226</v>
+        <v>1.435467450623747</v>
       </c>
       <c r="F8">
-        <v>3.740993073537908</v>
+        <v>2.861619931739199</v>
       </c>
       <c r="G8">
-        <v>4.287748952178902</v>
+        <v>3.219566788353859</v>
       </c>
       <c r="H8">
-        <v>0.03387090177332208</v>
+        <v>0.02657435361320726</v>
       </c>
       <c r="I8">
-        <v>0.09520504614114778</v>
+        <v>0.06442662652283637</v>
       </c>
       <c r="J8">
-        <v>2.198606671529035</v>
+        <v>1.693346282604722</v>
       </c>
       <c r="K8">
-        <v>2.937072137022966</v>
+        <v>2.037224070462528</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.8648819029158403</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.7147728250138101</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -792,8 +834,14 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,37 +849,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.09141120203051045</v>
+        <v>0.2028589678904069</v>
       </c>
       <c r="D9">
-        <v>0.1439984033179798</v>
+        <v>0.07426341173935214</v>
       </c>
       <c r="E9">
-        <v>2.026478832118329</v>
+        <v>1.931812570852713</v>
       </c>
       <c r="F9">
-        <v>5.03659216856866</v>
+        <v>3.78348234279926</v>
       </c>
       <c r="G9">
-        <v>5.797419758911701</v>
+        <v>4.292349090669262</v>
       </c>
       <c r="H9">
-        <v>0.05973270864252633</v>
+        <v>0.04636248688829347</v>
       </c>
       <c r="I9">
-        <v>0.1549361366679198</v>
+        <v>0.1010659563384753</v>
       </c>
       <c r="J9">
-        <v>2.921624960756674</v>
+        <v>2.179315306425337</v>
       </c>
       <c r="K9">
-        <v>3.940382561415845</v>
+        <v>2.667183002024629</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1.035438022511855</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.030243856340206</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -845,8 +893,14 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,37 +908,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.111179061119266</v>
+        <v>0.244624077896475</v>
       </c>
       <c r="D10">
-        <v>0.1671529417644422</v>
+        <v>0.08230440166872199</v>
       </c>
       <c r="E10">
-        <v>2.32065690225302</v>
+        <v>2.195719604477546</v>
       </c>
       <c r="F10">
-        <v>5.953392147186946</v>
+        <v>4.396789623590507</v>
       </c>
       <c r="G10">
-        <v>6.858863739197488</v>
+        <v>5.07936227584247</v>
       </c>
       <c r="H10">
-        <v>0.08076601342338563</v>
+        <v>0.06202984156529556</v>
       </c>
       <c r="I10">
-        <v>0.2048374620436952</v>
+        <v>0.1306766735183915</v>
       </c>
       <c r="J10">
-        <v>3.429425662428685</v>
+        <v>2.414142791180893</v>
       </c>
       <c r="K10">
-        <v>4.64397215028913</v>
+        <v>3.078954375441072</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1.136948341629619</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.250404479932271</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -898,8 +952,14 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,37 +967,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1095106471215033</v>
+        <v>0.2306783027747343</v>
       </c>
       <c r="D11">
-        <v>0.1466891508530779</v>
+        <v>0.06641392483903985</v>
       </c>
       <c r="E11">
-        <v>1.583024460001084</v>
+        <v>1.470800123222403</v>
       </c>
       <c r="F11">
-        <v>5.865136696290847</v>
+        <v>4.261264235749849</v>
       </c>
       <c r="G11">
-        <v>6.711461519130012</v>
+        <v>5.048305546381869</v>
       </c>
       <c r="H11">
-        <v>0.09384449871371459</v>
+        <v>0.0754717984003257</v>
       </c>
       <c r="I11">
-        <v>0.2125156083010609</v>
+        <v>0.1351119097837907</v>
       </c>
       <c r="J11">
-        <v>3.351497389285385</v>
+        <v>2.149640511173118</v>
       </c>
       <c r="K11">
-        <v>4.557261647858184</v>
+        <v>2.966314464492214</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1.076539932466915</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.228106646935458</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -951,8 +1011,14 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,37 +1026,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1045642535167346</v>
+        <v>0.211214320396607</v>
       </c>
       <c r="D12">
-        <v>0.1269333873161003</v>
+        <v>0.05424424574280096</v>
       </c>
       <c r="E12">
-        <v>1.039193109662378</v>
+        <v>0.9419724916094623</v>
       </c>
       <c r="F12">
-        <v>5.614112146628315</v>
+        <v>4.049500981896188</v>
       </c>
       <c r="G12">
-        <v>6.386275640106817</v>
+        <v>4.845518347498682</v>
       </c>
       <c r="H12">
-        <v>0.1261281472023512</v>
+        <v>0.1089069609648945</v>
       </c>
       <c r="I12">
-        <v>0.2091664038159546</v>
+        <v>0.1331856106312701</v>
       </c>
       <c r="J12">
-        <v>3.189393083913785</v>
+        <v>1.950797674384688</v>
       </c>
       <c r="K12">
-        <v>4.353990249782385</v>
+        <v>2.811500860884337</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1.014685688603635</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.172945705589171</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1004,8 +1070,14 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,37 +1085,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.09757134619970032</v>
+        <v>0.1891531118988183</v>
       </c>
       <c r="D13">
-        <v>0.1057991025232283</v>
+        <v>0.04378184648923167</v>
       </c>
       <c r="E13">
-        <v>0.6149341582742878</v>
+        <v>0.5344434031005179</v>
       </c>
       <c r="F13">
-        <v>5.211010649265916</v>
+        <v>3.766372831206354</v>
       </c>
       <c r="G13">
-        <v>5.890374899828146</v>
+        <v>4.469640373878633</v>
       </c>
       <c r="H13">
-        <v>0.1743433221290047</v>
+        <v>0.1589296867199437</v>
       </c>
       <c r="I13">
-        <v>0.1971366407580177</v>
+        <v>0.1264904122380308</v>
       </c>
       <c r="J13">
-        <v>2.945555449584049</v>
+        <v>1.811900909184203</v>
       </c>
       <c r="K13">
-        <v>4.035276527536979</v>
+        <v>2.611272952248356</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.9459016139764884</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.088384983162243</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1057,8 +1129,14 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,37 +1144,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.09212608247811005</v>
+        <v>0.1731319503976181</v>
       </c>
       <c r="D14">
-        <v>0.09060922742785493</v>
+        <v>0.03712757803160827</v>
       </c>
       <c r="E14">
-        <v>0.3925142019408341</v>
+        <v>0.3236027481735775</v>
       </c>
       <c r="F14">
-        <v>4.862065406865582</v>
+        <v>3.534715762778518</v>
       </c>
       <c r="G14">
-        <v>5.468693495645482</v>
+        <v>4.132202869857053</v>
       </c>
       <c r="H14">
-        <v>0.2182395303858158</v>
+        <v>0.2042816887412329</v>
       </c>
       <c r="I14">
-        <v>0.1853199929482994</v>
+        <v>0.1199292371592851</v>
       </c>
       <c r="J14">
-        <v>2.739056775820757</v>
+        <v>1.735701198919799</v>
       </c>
       <c r="K14">
-        <v>3.760767861026977</v>
+        <v>2.448976167845586</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.8936370074011108</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.015769006136537</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1110,8 +1188,14 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,37 +1203,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.0902695326852232</v>
+        <v>0.1687435554283354</v>
       </c>
       <c r="D15">
-        <v>0.08631471827767712</v>
+        <v>0.0355112959383348</v>
       </c>
       <c r="E15">
-        <v>0.3464546386706076</v>
+        <v>0.2808972348003316</v>
       </c>
       <c r="F15">
-        <v>4.741985195978003</v>
+        <v>3.459239997991403</v>
       </c>
       <c r="G15">
-        <v>5.32605626299096</v>
+        <v>4.012663088947761</v>
       </c>
       <c r="H15">
-        <v>0.2288566439153641</v>
+        <v>0.2154267886698449</v>
       </c>
       <c r="I15">
-        <v>0.180567313546617</v>
+        <v>0.1173115816276482</v>
       </c>
       <c r="J15">
-        <v>2.66964955075639</v>
+        <v>1.72347161576883</v>
       </c>
       <c r="K15">
-        <v>3.666152802827042</v>
+        <v>2.396133813248923</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.877934314375068</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.9905466515601233</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1163,8 +1247,14 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,37 +1262,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.08381477357092493</v>
+        <v>0.1595212391130332</v>
       </c>
       <c r="D16">
-        <v>0.08137706817400669</v>
+        <v>0.03561395899259878</v>
       </c>
       <c r="E16">
-        <v>0.3294466691068969</v>
+        <v>0.2705875386280283</v>
       </c>
       <c r="F16">
-        <v>4.439332770931287</v>
+        <v>3.295667075492418</v>
       </c>
       <c r="G16">
-        <v>4.983213550338519</v>
+        <v>3.697889986502787</v>
       </c>
       <c r="H16">
-        <v>0.209487210796425</v>
+        <v>0.1978648552733091</v>
       </c>
       <c r="I16">
-        <v>0.162425130747013</v>
+        <v>0.1069083750890929</v>
       </c>
       <c r="J16">
-        <v>2.506707173921995</v>
+        <v>1.77782993967142</v>
       </c>
       <c r="K16">
-        <v>3.434960928536668</v>
+        <v>2.288908053838057</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.8568326325451352</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.9263565921460923</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1216,8 +1306,14 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,37 +1321,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.08162503107464048</v>
+        <v>0.1604669337417874</v>
       </c>
       <c r="D17">
-        <v>0.08530757509358722</v>
+        <v>0.03901509138552228</v>
       </c>
       <c r="E17">
-        <v>0.4188644943263355</v>
+        <v>0.3597397441875785</v>
       </c>
       <c r="F17">
-        <v>4.389236707007626</v>
+        <v>3.285662138247346</v>
       </c>
       <c r="G17">
-        <v>4.939757447804311</v>
+        <v>3.641932577203931</v>
       </c>
       <c r="H17">
-        <v>0.1693121261991877</v>
+        <v>0.1583365617710655</v>
       </c>
       <c r="I17">
-        <v>0.1545705322871216</v>
+        <v>0.1022411377510641</v>
       </c>
       <c r="J17">
-        <v>2.489356356724386</v>
+        <v>1.841382645940087</v>
       </c>
       <c r="K17">
-        <v>3.400545269825727</v>
+        <v>2.2873322537707</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.8668373930598534</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.9131044246185809</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1269,8 +1365,14 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,37 +1380,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.08319193184163964</v>
+        <v>0.1707570043109996</v>
       </c>
       <c r="D18">
-        <v>0.09844498800060109</v>
+        <v>0.04685792167075675</v>
       </c>
       <c r="E18">
-        <v>0.6762161628035059</v>
+        <v>0.6101700181350438</v>
       </c>
       <c r="F18">
-        <v>4.559403615939317</v>
+        <v>3.424065948784914</v>
       </c>
       <c r="G18">
-        <v>5.160769914244497</v>
+        <v>3.795428104296406</v>
       </c>
       <c r="H18">
-        <v>0.1182563954809837</v>
+        <v>0.1069517854293807</v>
       </c>
       <c r="I18">
-        <v>0.1546498208386424</v>
+        <v>0.1020314709378338</v>
       </c>
       <c r="J18">
-        <v>2.600864177346409</v>
+        <v>1.956641736627148</v>
       </c>
       <c r="K18">
-        <v>3.540820944741455</v>
+        <v>2.391001050292289</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.9104053438786508</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.9474508137405451</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1322,8 +1424,14 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,37 +1439,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.08912613317002638</v>
+        <v>0.1915534074325933</v>
       </c>
       <c r="D19">
-        <v>0.1183450128792174</v>
+        <v>0.05819463081845555</v>
       </c>
       <c r="E19">
-        <v>1.153598103191044</v>
+        <v>1.073998390178275</v>
       </c>
       <c r="F19">
-        <v>4.884013338501632</v>
+        <v>3.666879695526802</v>
       </c>
       <c r="G19">
-        <v>5.567003166041616</v>
+        <v>4.090645228789413</v>
       </c>
       <c r="H19">
-        <v>0.07950905749326864</v>
+        <v>0.06690335557948401</v>
       </c>
       <c r="I19">
-        <v>0.1617603646819932</v>
+        <v>0.1061304452083789</v>
       </c>
       <c r="J19">
-        <v>2.801734960790213</v>
+        <v>2.112689476157755</v>
       </c>
       <c r="K19">
-        <v>3.798678160983656</v>
+        <v>2.564432059066093</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.9751109392394568</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.014829973746657</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1375,8 +1483,14 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,37 +1498,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1069739451460521</v>
+        <v>0.2385055914608927</v>
       </c>
       <c r="D20">
-        <v>0.1588322958357509</v>
+        <v>0.07975318030992185</v>
       </c>
       <c r="E20">
-        <v>2.236282928748921</v>
+        <v>2.120836124449752</v>
       </c>
       <c r="F20">
-        <v>5.67572230850385</v>
+        <v>4.225633270674052</v>
       </c>
       <c r="G20">
-        <v>6.53438990292716</v>
+        <v>4.812172520423701</v>
       </c>
       <c r="H20">
-        <v>0.0746420960365981</v>
+        <v>0.05757218604317238</v>
       </c>
       <c r="I20">
-        <v>0.1904216521988928</v>
+        <v>0.122759928549744</v>
       </c>
       <c r="J20">
-        <v>3.273528315743363</v>
+        <v>2.395350541745643</v>
       </c>
       <c r="K20">
-        <v>4.421575535223099</v>
+        <v>2.956728336748057</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1.1055525542222</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.186315434205369</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1428,8 +1542,14 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,37 +1557,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1252463319338517</v>
+        <v>0.270137966225235</v>
       </c>
       <c r="D21">
-        <v>0.1826703169084283</v>
+        <v>0.08453005761278831</v>
       </c>
       <c r="E21">
-        <v>2.642560679083346</v>
+        <v>2.493524636120469</v>
       </c>
       <c r="F21">
-        <v>6.485826001471509</v>
+        <v>4.678544203365703</v>
       </c>
       <c r="G21">
-        <v>7.480302298419133</v>
+        <v>5.651395973802209</v>
       </c>
       <c r="H21">
-        <v>0.0952402718759835</v>
+        <v>0.07254719032935952</v>
       </c>
       <c r="I21">
-        <v>0.235103159126119</v>
+        <v>0.1476370262311004</v>
       </c>
       <c r="J21">
-        <v>3.72750502648114</v>
+        <v>2.312528541640518</v>
       </c>
       <c r="K21">
-        <v>5.046257835708957</v>
+        <v>3.259723418397272</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1.177240578674926</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.353216040989906</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1481,8 +1601,14 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,37 +1616,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1367064786954444</v>
+        <v>0.2876760242890128</v>
       </c>
       <c r="D22">
-        <v>0.1974780842356836</v>
+        <v>0.08668298711717171</v>
       </c>
       <c r="E22">
-        <v>2.856634610765184</v>
+        <v>2.684865612037555</v>
       </c>
       <c r="F22">
-        <v>7.009465719252745</v>
+        <v>4.958360458842975</v>
       </c>
       <c r="G22">
-        <v>8.090117382095571</v>
+        <v>6.208417488293151</v>
       </c>
       <c r="H22">
-        <v>0.1090150119297686</v>
+        <v>0.08236079622060366</v>
       </c>
       <c r="I22">
-        <v>0.2660861337934692</v>
+        <v>0.1644108466771028</v>
       </c>
       <c r="J22">
-        <v>4.020092987763462</v>
+        <v>2.2346962202908</v>
       </c>
       <c r="K22">
-        <v>5.452477802834096</v>
+        <v>3.448216004773755</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1.219861275737827</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.459969458407699</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1534,8 +1660,14 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,37 +1675,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1300290421146926</v>
+        <v>0.2776987038929377</v>
       </c>
       <c r="D23">
-        <v>0.1903678742790476</v>
+        <v>0.08666140485722451</v>
       </c>
       <c r="E23">
-        <v>2.742538441538741</v>
+        <v>2.583186351201149</v>
       </c>
       <c r="F23">
-        <v>6.741682455812452</v>
+        <v>4.83096925857555</v>
       </c>
       <c r="G23">
-        <v>7.779346270665883</v>
+        <v>5.90182612078894</v>
       </c>
       <c r="H23">
-        <v>0.1016515501076913</v>
+        <v>0.07716374812464544</v>
       </c>
       <c r="I23">
-        <v>0.249590151763039</v>
+        <v>0.1555249069596689</v>
       </c>
       <c r="J23">
-        <v>3.871190427370379</v>
+        <v>2.321671786223078</v>
       </c>
       <c r="K23">
-        <v>5.248389289953053</v>
+        <v>3.366146178752203</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1.20372333149956</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.410412188776405</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1587,8 +1719,14 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,37 +1734,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1070992055672519</v>
+        <v>0.2386571105028708</v>
       </c>
       <c r="D24">
-        <v>0.162457980164973</v>
+        <v>0.08197832265830129</v>
       </c>
       <c r="E24">
-        <v>2.319307126321121</v>
+        <v>2.201448544694358</v>
       </c>
       <c r="F24">
-        <v>5.726347500074127</v>
+        <v>4.264418649387551</v>
       </c>
       <c r="G24">
-        <v>6.598609686814427</v>
+        <v>4.85871011661817</v>
       </c>
       <c r="H24">
-        <v>0.07588640609816366</v>
+        <v>0.05855273394596594</v>
       </c>
       <c r="I24">
-        <v>0.1915320730346348</v>
+        <v>0.1231708857859344</v>
       </c>
       <c r="J24">
-        <v>3.305208532287509</v>
+        <v>2.421956038570954</v>
       </c>
       <c r="K24">
-        <v>4.467108933482308</v>
+        <v>2.988917743601334</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1.11766416289062</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.198735849000101</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1640,8 +1778,14 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,37 +1793,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.08494612628949483</v>
+        <v>0.1891075034854595</v>
       </c>
       <c r="D25">
-        <v>0.1329141237510498</v>
+        <v>0.06949842064555156</v>
       </c>
       <c r="E25">
-        <v>1.879204175865368</v>
+        <v>1.795827887026221</v>
       </c>
       <c r="F25">
-        <v>4.663737231464467</v>
+        <v>3.525320662566401</v>
       </c>
       <c r="G25">
-        <v>5.361709532154578</v>
+        <v>3.972379686257597</v>
       </c>
       <c r="H25">
-        <v>0.05202520286793</v>
+        <v>0.04053849463209858</v>
       </c>
       <c r="I25">
-        <v>0.1372491228800419</v>
+        <v>0.09058739656206427</v>
       </c>
       <c r="J25">
-        <v>2.712553505478411</v>
+        <v>2.062565494675709</v>
       </c>
       <c r="K25">
-        <v>3.646949644517633</v>
+        <v>2.487013113896865</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.9866513527010312</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.9395195365577393</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1691,6 +1835,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
